--- a/full-stack-challenge.xlsx
+++ b/full-stack-challenge.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Full Stack Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Full Stack Dev. Challenge\Full-Stack-Dev.-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2618,7 +2618,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2714,7 +2714,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2876,12 +2876,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D108" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D108" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D108"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Challenge Number" dataDxfId="5"/>
-    <tableColumn id="2" name="Category" dataDxfId="4"/>
-    <tableColumn id="3" name="Description" dataDxfId="3"/>
+    <tableColumn id="1" name="Challenge Number" dataDxfId="3"/>
+    <tableColumn id="2" name="Category" dataDxfId="2"/>
+    <tableColumn id="3" name="Description" dataDxfId="1"/>
     <tableColumn id="4" name="Task" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3153,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3306,7 +3306,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -3520,7 +3520,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -3752,7 +3752,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -4100,7 +4100,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -4176,7 +4176,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>

--- a/full-stack-challenge.xlsx
+++ b/full-stack-challenge.xlsx
@@ -3153,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/full-stack-challenge.xlsx
+++ b/full-stack-challenge.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7932" windowHeight="8448"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7932" windowHeight="8448" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Foundations of JavaScript" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="504">
   <si>
     <t>Challenge Number</t>
   </si>
@@ -2379,6 +2379,13 @@
 Use a loop to iterate through each element of the array.
 Display each element of the array as output.</t>
     </r>
+  </si>
+  <si>
+    <t>Function as an Argument Task:
+Write a higher-order function that accepts another function as an argument.
+Define a function, such as applyOperation, that takes two numbers and a callback function as parameters.
+Use the callback function to perform a specific operation on the two numbers, such as addition, subtraction, multiplication, or division.
+Test the higher-order function by passing different callback functions to perform various arithmetic operations.</t>
   </si>
 </sst>
 </file>
@@ -2515,7 +2522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2567,6 +2574,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3153,8 +3161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A18" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4247,10 +4255,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:XFD105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4258,9 +4266,10 @@
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" customWidth="1"/>
     <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4274,49 +4283,53 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>21</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>22</v>
       </c>
@@ -4328,37 +4341,37 @@
       </c>
       <c r="D8" s="17"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
     </row>
-    <row r="14" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>23</v>
       </c>
@@ -4370,13 +4383,13 @@
       </c>
       <c r="D14" s="17"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>

--- a/full-stack-challenge.xlsx
+++ b/full-stack-challenge.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7932" windowHeight="8448" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7932" windowHeight="8448"/>
   </bookViews>
   <sheets>
     <sheet name="Foundations of JavaScript" sheetId="1" r:id="rId1"/>
@@ -2438,7 +2438,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2454,6 +2454,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2522,7 +2528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2575,6 +2581,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3161,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3263,10 +3275,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="69" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="13" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21" t="s">
         <v>408</v>
       </c>
     </row>
@@ -3282,7 +3294,7 @@
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="13" t="s">
         <v>409</v>
       </c>
     </row>
@@ -4257,7 +4269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/full-stack-challenge.xlsx
+++ b/full-stack-challenge.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7932" windowHeight="8448"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7932" windowHeight="8448" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Foundations of JavaScript" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,10 @@
     <sheet name="Advanced JavaScript Topics" sheetId="4" r:id="rId3"/>
     <sheet name="JS Frameworks and Libraries" sheetId="5" r:id="rId4"/>
     <sheet name="FE Dev Tools and Techniques" sheetId="6" r:id="rId5"/>
-    <sheet name="BackEnd" sheetId="2" r:id="rId6"/>
+    <sheet name="Authentication &amp; Authorization" sheetId="2" r:id="rId6"/>
+    <sheet name="API Security and Testing" sheetId="7" r:id="rId7"/>
+    <sheet name="SSR &amp; Caching" sheetId="8" r:id="rId8"/>
+    <sheet name="Real-time Comm &amp; WebSockets" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="FoundationsOfJavaScript">Table1[]</definedName>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="502">
   <si>
     <t>Challenge Number</t>
   </si>
@@ -985,9 +988,6 @@
     <t>Generate API documentation using Swagger UI for a Node.js API built with Express.js.</t>
   </si>
   <si>
-    <t>Authentication and Authorization</t>
-  </si>
-  <si>
     <t>JWT Authentication</t>
   </si>
   <si>
@@ -1043,9 +1043,6 @@
   </si>
   <si>
     <t>Implement security best practices such as input validation, output encoding, and CSRF protection in a Java Spring application.</t>
-  </si>
-  <si>
-    <t>API Security and Testing</t>
   </si>
   <si>
     <t>Input Validation</t>
@@ -2438,7 +2435,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2463,8 +2460,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2524,11 +2527,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2587,11 +2623,699 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2883,28 +3607,88 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D123" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D123" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:D123"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Challenge Number" dataDxfId="9"/>
-    <tableColumn id="2" name="Category" dataDxfId="8"/>
-    <tableColumn id="3" name="Description" dataDxfId="7"/>
-    <tableColumn id="4" name="Task" dataDxfId="6"/>
+    <tableColumn id="1" name="Challenge Number" dataDxfId="35"/>
+    <tableColumn id="2" name="Category" dataDxfId="34"/>
+    <tableColumn id="3" name="Description" dataDxfId="33"/>
+    <tableColumn id="4" name="Task" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D108" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D108" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:D108"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Challenge Number" dataDxfId="3"/>
+    <tableColumn id="1" name="Challenge Number" dataDxfId="29"/>
+    <tableColumn id="2" name="Category" dataDxfId="28"/>
+    <tableColumn id="3" name="Description" dataDxfId="27"/>
+    <tableColumn id="4" name="Task" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C21" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:C21"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Challenge Number" dataDxfId="25"/>
+    <tableColumn id="2" name="Category" dataDxfId="24"/>
+    <tableColumn id="3" name="Description" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:C21" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:C21"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Challenge Number" dataDxfId="20"/>
+    <tableColumn id="2" name="Category" dataDxfId="19"/>
+    <tableColumn id="3" name="Description" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:C21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:C21"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Challenge Number" dataDxfId="15"/>
+    <tableColumn id="2" name="Category" dataDxfId="14"/>
+    <tableColumn id="3" name="Description" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A2:C12" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="A2:C12"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Question Number" dataDxfId="3"/>
     <tableColumn id="2" name="Category" dataDxfId="2"/>
     <tableColumn id="3" name="Description" dataDxfId="1"/>
-    <tableColumn id="4" name="Task" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A2:C12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="6">
+  <autoFilter ref="A2:C12"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Question Number" dataDxfId="9"/>
+    <tableColumn id="2" name="Category" dataDxfId="8"/>
+    <tableColumn id="3" name="Description" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3173,8 +3957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A35" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3197,7 +3981,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
@@ -3211,7 +3995,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
@@ -3219,7 +4003,7 @@
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -3227,7 +4011,7 @@
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -3235,7 +4019,7 @@
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -3243,7 +4027,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3263,7 +4047,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -3271,7 +4055,7 @@
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -3279,23 +4063,23 @@
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="69" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="13" t="s">
-        <v>502</v>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="69" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="13" t="s">
-        <v>409</v>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -3308,46 +4092,46 @@
       <c r="A14" s="11">
         <v>3</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>410</v>
+      <c r="D14" s="13" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="11" t="s">
-        <v>411</v>
+      <c r="D15" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="11" t="s">
-        <v>412</v>
+      <c r="D16" s="13" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="69" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="11" t="s">
-        <v>413</v>
+      <c r="D17" s="13" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="11" t="s">
-        <v>414</v>
+      <c r="D18" s="13" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -3367,7 +4151,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -3375,7 +4159,7 @@
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -3383,7 +4167,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
@@ -3391,7 +4175,7 @@
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -3405,7 +4189,7 @@
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -3425,7 +4209,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
@@ -3433,7 +4217,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
@@ -3441,7 +4225,7 @@
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
@@ -3449,7 +4233,7 @@
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
@@ -3457,7 +4241,7 @@
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -3477,7 +4261,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -3485,7 +4269,7 @@
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="13" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -3493,7 +4277,7 @@
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -3501,7 +4285,7 @@
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -3509,7 +4293,7 @@
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -3529,7 +4313,7 @@
         <v>16</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
@@ -3537,7 +4321,7 @@
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -3545,7 +4329,7 @@
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -3553,7 +4337,7 @@
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -3561,7 +4345,7 @@
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -3581,7 +4365,7 @@
         <v>18</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -3589,7 +4373,7 @@
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -3597,7 +4381,7 @@
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
@@ -3605,7 +4389,7 @@
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -3613,7 +4397,7 @@
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3633,7 +4417,7 @@
         <v>20</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
@@ -3641,7 +4425,7 @@
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
@@ -3649,7 +4433,7 @@
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
@@ -3657,7 +4441,7 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -3665,7 +4449,7 @@
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -3685,7 +4469,7 @@
         <v>22</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -3693,7 +4477,7 @@
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -3701,7 +4485,7 @@
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -3709,7 +4493,7 @@
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -3717,7 +4501,7 @@
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -3725,7 +4509,7 @@
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -3745,7 +4529,7 @@
         <v>24</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
@@ -3753,7 +4537,7 @@
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -3761,7 +4545,7 @@
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -3769,7 +4553,7 @@
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -3777,7 +4561,7 @@
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -3785,7 +4569,7 @@
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3805,7 +4589,7 @@
         <v>26</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -3813,7 +4597,7 @@
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -3821,7 +4605,7 @@
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -3829,7 +4613,7 @@
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="138" x14ac:dyDescent="0.3">
@@ -3837,7 +4621,7 @@
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -3857,7 +4641,7 @@
         <v>28</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
@@ -3865,7 +4649,7 @@
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
@@ -3873,7 +4657,7 @@
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -3881,7 +4665,7 @@
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -3889,7 +4673,7 @@
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3909,7 +4693,7 @@
         <v>30</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
@@ -3917,7 +4701,7 @@
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -3925,7 +4709,7 @@
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
@@ -3933,7 +4717,7 @@
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -3941,7 +4725,7 @@
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3961,7 +4745,7 @@
         <v>31</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -3969,7 +4753,7 @@
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -3977,7 +4761,7 @@
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -3985,7 +4769,7 @@
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -3993,7 +4777,7 @@
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -4013,7 +4797,7 @@
         <v>33</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -4021,7 +4805,7 @@
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -4029,7 +4813,7 @@
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
@@ -4037,7 +4821,7 @@
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
@@ -4045,7 +4829,7 @@
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -4065,7 +4849,7 @@
         <v>35</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -4073,7 +4857,7 @@
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -4081,7 +4865,7 @@
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -4089,7 +4873,7 @@
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -4097,7 +4881,7 @@
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
       <c r="D105" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -4117,7 +4901,7 @@
         <v>37</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
@@ -4125,7 +4909,7 @@
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -4133,7 +4917,7 @@
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -4141,7 +4925,7 @@
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -4149,7 +4933,7 @@
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -4169,7 +4953,7 @@
         <v>39</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -4177,7 +4961,7 @@
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
@@ -4185,7 +4969,7 @@
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -4193,7 +4977,7 @@
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -4201,7 +4985,7 @@
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
       <c r="D117" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -4221,7 +5005,7 @@
         <v>41</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -4229,7 +5013,7 @@
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
@@ -4237,7 +5021,7 @@
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="138" x14ac:dyDescent="0.3">
@@ -4245,7 +5029,7 @@
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
@@ -4253,7 +5037,7 @@
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -4269,8 +5053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4292,7 +5076,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="165.6" x14ac:dyDescent="0.3">
@@ -4306,7 +5090,7 @@
         <v>43</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F2" s="19"/>
     </row>
@@ -5072,19 +5856,24 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="43.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>41</v>
       </c>
@@ -5095,7 +5884,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>42</v>
       </c>
@@ -5106,7 +5895,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>43</v>
       </c>
@@ -5117,7 +5906,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>44</v>
       </c>
@@ -5128,7 +5917,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="138" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>45</v>
       </c>
@@ -5139,7 +5928,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>46</v>
       </c>
@@ -5150,7 +5939,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>47</v>
       </c>
@@ -5161,7 +5950,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>48</v>
       </c>
@@ -5172,7 +5961,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>49</v>
       </c>
@@ -5183,7 +5972,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="207" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>50</v>
       </c>
@@ -5194,7 +5983,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="234.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>51</v>
       </c>
@@ -5205,7 +5994,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="207" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>52</v>
       </c>
@@ -5216,7 +6005,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="207" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>53</v>
       </c>
@@ -5227,7 +6016,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="207" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>54</v>
       </c>
@@ -5238,7 +6027,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="207" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>55</v>
       </c>
@@ -5249,7 +6038,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>56</v>
       </c>
@@ -5260,7 +6049,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="207" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>57</v>
       </c>
@@ -5271,7 +6060,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="207" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>58</v>
       </c>
@@ -5282,7 +6071,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>59</v>
       </c>
@@ -5293,7 +6082,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>60</v>
       </c>
@@ -5306,6 +6095,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -5318,240 +6110,248 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="25">
         <v>61</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="193.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
         <v>62</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="25" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
         <v>63</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="25" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
         <v>64</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
         <v>65</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
         <v>66</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="25" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+    <row r="8" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
         <v>67</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="138" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row r="9" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
         <v>68</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row r="10" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
         <v>69</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+    <row r="11" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
         <v>70</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
         <v>71</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="25" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    <row r="13" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
         <v>72</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="25" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+    <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
         <v>73</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="138" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
         <v>74</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="25" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+    <row r="16" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
         <v>75</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="193.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+    <row r="17" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
         <v>76</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+    <row r="18" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="25">
         <v>77</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="138" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+    <row r="19" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
         <v>78</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="25" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+    <row r="20" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
         <v>79</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+    <row r="21" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="25">
         <v>80</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="25" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -5564,236 +6364,992 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="25">
         <v>81</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="25" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
         <v>82</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
         <v>83</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="25" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="193.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
         <v>84</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="25" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="207" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
         <v>85</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="25" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
         <v>86</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="25" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="207" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+    <row r="8" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
         <v>87</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="25" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="234.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row r="9" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
         <v>88</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="25" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row r="10" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
         <v>89</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="25" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="193.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+    <row r="11" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
         <v>90</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="25" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
         <v>91</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="207" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    <row r="13" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
         <v>92</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="25" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="207" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+    <row r="14" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
         <v>93</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="25" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="207" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
         <v>94</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="25" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="193.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+    <row r="16" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
         <v>95</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="207" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+    <row r="17" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
         <v>96</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="25" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+    <row r="18" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="25">
         <v>97</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="25" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="220.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+    <row r="19" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
         <v>98</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="25" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="220.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+    <row r="20" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
         <v>99</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="25" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="234.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+    <row r="21" spans="1:3" ht="69" x14ac:dyDescent="0.3">
+      <c r="A21" s="25">
         <v>100</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="25" t="s">
         <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U22"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="207.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="3">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="3">
+        <v>41</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="M3" s="3">
+        <v>51</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>61</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="3">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I4" s="3">
+        <v>42</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="M4" s="3">
+        <v>52</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>62</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="3">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I5" s="3">
+        <v>43</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="M5" s="3">
+        <v>53</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>63</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="249" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="3">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" s="3">
+        <v>44</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="M6" s="3">
+        <v>54</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>64</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="3">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I7" s="3">
+        <v>45</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="M7" s="3">
+        <v>55</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>65</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="3">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I8" s="3">
+        <v>46</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M8" s="3">
+        <v>56</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>66</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="3">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I9" s="3">
+        <v>47</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="M9" s="3">
+        <v>57</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>67</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="3">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I10" s="3">
+        <v>48</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="M10" s="3">
+        <v>58</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>68</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="3">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I11" s="3">
+        <v>49</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="M11" s="3">
+        <v>59</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>69</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" s="3">
+        <v>50</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="M12" s="3">
+        <v>60</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>70</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="3">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="207.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="3">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="276.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="3">
+        <v>33</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="180" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="3">
+        <v>34</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="207.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="3">
+        <v>35</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="3">
+        <v>36</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="3">
+        <v>37</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="207.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="3">
+        <v>38</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="180" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="3">
+        <v>39</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" s="3">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -5801,1057 +7357,439 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE22"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AE12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="21" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="U1" s="6" t="s">
+    <row r="1" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="180" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>71</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="Y1" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" ht="180" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>199</v>
+        <v>338</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E3" s="3">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" s="3">
-        <v>41</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="M3" s="3">
-        <v>51</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>61</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="U3" s="3">
-        <v>71</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="W3" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="Y3" s="3">
-        <v>81</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>91</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" ht="180" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>201</v>
+        <v>340</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" s="3">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I4" s="3">
-        <v>42</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="M4" s="3">
-        <v>52</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>62</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="U4" s="3">
-        <v>72</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="W4" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="Y4" s="3">
-        <v>82</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>92</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:3" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>203</v>
+        <v>342</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="3">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I5" s="3">
-        <v>43</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="M5" s="3">
-        <v>53</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>63</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="U5" s="3">
-        <v>73</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="W5" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="Y5" s="3">
-        <v>83</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>93</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="249" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:3" ht="180" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" s="3">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="I6" s="3">
-        <v>44</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M6" s="3">
-        <v>54</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>64</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="U6" s="3">
-        <v>74</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="W6" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="Y6" s="3">
-        <v>84</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>94</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="207.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:3" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>207</v>
+        <v>346</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E7" s="3">
-        <v>25</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="I7" s="3">
-        <v>45</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="M7" s="3">
-        <v>55</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>65</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="U7" s="3">
-        <v>75</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="W7" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="Y7" s="3">
-        <v>85</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>95</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="276.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:3" ht="180" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>209</v>
+        <v>348</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E8" s="3">
-        <v>26</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="I8" s="3">
-        <v>46</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="M8" s="3">
-        <v>56</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>66</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="U8" s="3">
-        <v>76</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="W8" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="Y8" s="3">
-        <v>86</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>96</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="249" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:3" ht="207.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>211</v>
+        <v>350</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E9" s="3">
-        <v>27</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="I9" s="3">
-        <v>47</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="M9" s="3">
-        <v>57</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>67</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="U9" s="3">
-        <v>77</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="W9" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="Y9" s="3">
-        <v>87</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>97</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="249" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:3" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>213</v>
+        <v>352</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="3">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="I10" s="3">
-        <v>48</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="M10" s="3">
-        <v>58</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>68</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="U10" s="3">
-        <v>78</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="W10" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="Y10" s="3">
-        <v>88</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>98</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:3" ht="207.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>354</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" s="3">
-        <v>29</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="I11" s="3">
-        <v>49</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="M11" s="3">
-        <v>59</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>69</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="U11" s="3">
-        <v>79</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="W11" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>89</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>99</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E12" s="3">
-        <v>30</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="I12" s="3">
-        <v>50</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="M12" s="3">
-        <v>60</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>70</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="U12" s="3">
-        <v>80</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>90</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>100</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="AE12" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="3">
-        <v>31</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="207.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" s="3">
-        <v>32</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="276.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" s="3">
-        <v>33</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="180" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E16" s="3">
-        <v>34</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="207.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" s="3">
-        <v>35</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E18" s="3">
-        <v>36</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E19" s="3">
-        <v>37</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="207.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E20" s="3">
-        <v>38</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="180" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E21" s="3">
-        <v>39</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E22" s="3">
-        <v>40</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="138.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26">
+        <v>81</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="207.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26">
+        <v>82</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26">
+        <v>83</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26">
+        <v>84</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="26">
+        <v>85</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="249" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="26">
+        <v>86</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="249" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26">
+        <v>87</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="26">
+        <v>88</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="26">
+        <v>89</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="138" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>90</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="30">
+        <v>91</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="30">
+        <v>92</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="30">
+        <v>93</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="30">
+        <v>94</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="30">
+        <v>95</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="30">
+        <v>96</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="30">
+        <v>97</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="30">
+        <v>98</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="30">
+        <v>99</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
+        <v>100</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/full-stack-challenge.xlsx
+++ b/full-stack-challenge.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Full Stack Dev. Challenge\Full-Stack-Dev.-Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Full-Stack-Dev.-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7932" windowHeight="8448" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7932" windowHeight="8448" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Foundations of JavaScript" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="536">
   <si>
     <t>Challenge Number</t>
   </si>
@@ -2384,12 +2384,214 @@
 Use the callback function to perform a specific operation on the two numbers, such as addition, subtraction, multiplication, or division.
 Test the higher-order function by passing different callback functions to perform various arithmetic operations.</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Event Listener Higher-Order Function
+Question: Implement a higher-order function in Kotlin that allows for easy handling of button click events across multiple views. The function should accept a lambda expression that defines what happens when a button is clicked. Demonstrate how this higher-order function simplifies adding click listeners to buttons in an Android application.</t>
+  </si>
+  <si>
+    <t>Set Operations with Higher-Order Functions
+Question: Define higher-order functions in Scheme that operate on sets represented as lists. Implement takewhile and dropwhile functions that manipulate lists based on a predicate. Provide examples demonstrating how these functions can be used to filter elements from a list according to a condition.</t>
+  </si>
+  <si>
+    <t>Ordered Lists and Comparison
+Question: Develop a higher-order function in Scheme called ordered-by, which takes a comparison function as input and returns a predicate function. This predicate checks whether a given list is totally ordered according to the comparison function. Include examples showing how ordered-by can be used with different comparison functions to validate the ordering of lists.</t>
+  </si>
+  <si>
+    <t>Utilizing Classic Higher-Order Functions
+Question: Without using recursion or case analysis in your definitions, create functions in Scheme that utilize map, curry, foldl, and foldr. These functions should operate on non-empty lists to find the maximum, sum, and product of integer elements within the list. Ensure your implementations correctly handle non-empty lists and produce scalar results.</t>
+  </si>
+  <si>
+    <t>Transforming Array Elements with .map()
+Objective: Understand and implement the .map() method to transform each element in an array.
+Details:
+Task Description: Write a JavaScript function that takes an array of numbers as input and returns a new array where each number has been multiplied by 2. Use the .map() method to achieve this transformation.
+Key Concepts: Focus on understanding how .map() works by applying a function to each element of an array and creating a new array with the results.
+Testing: After implementing the function, test it with an example array [1, 2, 3, 4] to ensure it correctly doubles each element.</t>
+  </si>
+  <si>
+    <t>Task 5: Custom Sorting with .sort()
+Objective: Explore the .sort() method for customizing the sorting order of an array.
+Details:
+Task Description: Given an array of objects representing people, write a function that sorts the array in ascending order based on the age property of each object. Use the .sort() method with a custom comparator function.
+Key Concepts: Understand how .sort() can be customized by passing a compare function to determine the sort order. Reflect on the importance of specifying a compare function for complex data structures.
+Testing: Test your function with an array of people objects to ensure they are sorted correctly by age.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task 4: Iterating Over Array Elements with .forEach()
+Objective: Learn to use the .forEach() method for executing a function on each element of an array.
+Details:
+Task Description: Write a function that takes an array of strings and logs each string to the console. Use the .forEach() method to iterate over the array and perform the logging action.
+Key Concepts: Understand the purpose of .forEach() in executing a function for each element in an array without returning a new array. Consider the benefits of using .forEach() over traditional looping constructs.
+Testing: Test your function with an array ['Hello', 'World'] to see each string logged to the console.
+</t>
+  </si>
+  <si>
+    <t>Filtering Array Elements with .filter()
+Objective: Learn to use the .filter() method to select specific elements from an array.
+Details:
+Task Description: Write a function that takes an array of numbers and returns a new array containing only the even numbers from the original array. Use the .filter() method to identify and collect the even numbers.
+Key Concepts: Understand the role of .filter() in extracting elements based on a condition. Pay attention to how the callback function passed to .filter() determines which elements are included in the new array.
+Testing: Test your function with an array [1, 2, 3, 4, 5, 6] to verify that it correctly filters out the odd numbers.</t>
+  </si>
+  <si>
+    <t>Task 3: Accumulating Array Elements with .reduce()
+Objective: Practice using the .reduce() method to aggregate values from an array.
+Details:
+Task Description: Implement a function that calculates the sum of all numbers in an array. Use the .reduce() method to accumulate the sum as you iterate through the array.
+Key Concepts: Focus on how .reduce() works by applying a function to each element of an array and accumulating a result. Understand the initial value parameter and how it affects the calculation.
+Testing: Test your function with an array [1, 2, 3, 4, 5] to confirm it accurately sums up all the numbers.</t>
+  </si>
+  <si>
+    <t>Creating and Exporting Variables
+Objective: Learn how to create and export variables using ES6 module syntax.
+Details:
+Task Description: Write a JavaScript module that exports a constant array of numbers. Use the export keyword to make the array accessible to other modules.
+Key Concepts: Understand the use of export to expose variables, functions, or classes from a module. Pay attention to the difference between exporting individual members and exporting them all at once.
+Testing: After exporting the array, try importing it in another module to verify that it can be accessed and used.</t>
+  </si>
+  <si>
+    <t>Defining and Exporting a Function
+Objective: Practice defining and exporting a function using ES6 module syntax.
+Details:
+Task Description: Create a module that exports a function. This function should take a message as an argument and log it to the console. Use the export keyword to define the function's availability outside the module.
+Key Concepts: Focus on the syntax for exporting functions and the implications of making them part of the module's public interface.
+Testing: Import the function in another module and call it with a sample message to check its functionality.</t>
+  </si>
+  <si>
+    <t>Exporting a Class
+Objective: Learn how to define and export a class using ES6 module syntax.
+Details:
+Task Description: Write a module that exports a class. This class should have a constructor that initializes a greeting message. Use the export keyword to make the class available for instantiation in other modules.
+Key Concepts: Understand the process of exporting classes and the benefits of encapsulating functionality within classes.
+Testing: Import the class in another module, instantiate it, and call its methods to verify its functionality.</t>
+  </si>
+  <si>
+    <t>Importing Multiple Exports
+Objective: Learn how to import multiple exports from a module using ES6 import syntax.
+Details:
+Task Description: In a separate module, import both the array and the function exported from the previous tasks. Use the import statement to bring in the required exports.
+Key Concepts: Understand the syntax for importing multiple exports and the flexibility it offers in accessing different parts of a module.
+Testing: After importing, use the array and function in your module to demonstrate their functionality.</t>
+  </si>
+  <si>
+    <t>Default Export and Import
+Objective: Practice using default exports and imports in ES6 modules.
+Details:
+Task Description: Modify the module from Task 2 to use a default export instead of named exports. Then, adjust the import statement in Task 4 to import the default export.
+Key Concepts: Distinguish between default exports and named exports, and understand why and when to use each type.
+Testing: Verify that the default export behaves as expected when imported and used in another module.</t>
+  </si>
+  <si>
+    <t>Asynchronous File Reading with Callbacks:
+Write a program in Node.js that reads the content of a file asynchronously using the fs.readFile method. Use a callback function to handle the data once the file has been read. If the file read is successful, print the content to the console. If there is an error (e.g., the file does not exist), print an appropriate error message.
+Hint: Use fs.readFile('path/to/file', 'utf8', callback) from the fs module.</t>
+  </si>
+  <si>
+    <t>Event Handling in the Browser:
+Create an HTML page with a button. Write JavaScript code to handle the button click event using a callback function. When the button is clicked, display an alert with a custom message. Additionally, after the alert is dismissed, change the button text to "Clicked!".
+Hint: Use document.getElementById('button-id').addEventListener('click', callback)</t>
+  </si>
+  <si>
+    <t>Asynchronous API Call:
+Write a JavaScript function that makes an asynchronous HTTP GET request to a public API (e.g., JSONPlaceholder). Use the fetch API to get a list of posts. Pass a callback function to handle the response. The callback should parse the JSON data and log the titles of the posts to the console. If the request fails, log an error message.
+Hint: Use fetch('https://jsonplaceholder.typicode.com/posts').then(callback).catch(errorCallback).
+Custom Event Emitter</t>
+  </si>
+  <si>
+    <t>Custom Event Emitter:
+Implement a simple custom event emitter class in JavaScript. This class should have methods to register event listeners, emit events, and remove event listeners. Write a test case where you create an instance of this class, register a couple of callbacks for a custom event, emit the event, and ensure the callbacks are executed in order. Finally, demonstrate removing a listener and emitting the event again to show the listener is no longer called.
+Hint: Use an object to store events and their corresponding listeners.</t>
+  </si>
+  <si>
+    <t>Handling Multiple Asynchronous Operations:
+Write a JavaScript function that simulates fetching user data and their corresponding posts data asynchronously. Use callback functions to handle the data fetching. First, fetch the user data (e.g., from https://jsonplaceholder.typicode.com/users/1), then use the user's ID to fetch their posts (e.g., from https://jsonplaceholder.typicode.com/posts?userId=1). Print the user's name and the titles of their posts to the console. Handle any errors that occur during the fetch operations.
+Hint: Use nested fetch calls or the async/await syntax for a cleaner approach.</t>
+  </si>
+  <si>
+    <t>Dynamic List Item Handling:
+Create an HTML page with an unordered list (&lt;ul&gt;) and a button to add new list items (&lt;li&gt;). Use event delegation to handle click events on any list item. When a list item is clicked, display an alert with the text content of the clicked item. Ensure that newly added items are also handled by the same event listener.
+Hint: Attach a single click event listener to the parent &lt;ul&gt; element.</t>
+  </si>
+  <si>
+    <t>Form Input Validation:
+Implement a form with multiple input fields (e.g., text, email, number) and a submit button. Use event delegation to validate each input field when it loses focus (blur event). If the input is invalid, display an error message next to the field. Use a single event listener attached to the form element.
+Hint: Use the blur event and check the event target's validity using event.target.validity.</t>
+  </si>
+  <si>
+    <t>Menu Navigation:
+Create a navigation menu with nested submenus. Use event delegation to handle hover events to show or hide the submenus. When a submenu item is hovered over, display the corresponding submenu. Use a single event listener attached to the main menu.
+Hint: Use mouseover and mouseout events on the parent menu element to manage submenus.</t>
+  </si>
+  <si>
+    <t>Table Row Highlighting:
+Build a table with multiple rows. Use event delegation to highlight a table row when the mouse is over it and remove the highlight when the mouse leaves. Use a single event listener on the table element.
+Hint: Use the mouseover and mouseout events and check event.target to identify rows.</t>
+  </si>
+  <si>
+    <t>Delegated Event Removal:
+Create a to-do list where each item has a delete button. Use event delegation to handle the click event on the delete button to remove the corresponding list item. Ensure the event listener is attached to a parent element and dynamically handle items added after the initial page load.
+Hint: Attach the event listener to the parent &lt;ul&gt; element and use event.target to identify the delete button.</t>
+  </si>
+  <si>
+    <t>Pure Functions and Side Effects:
+Write a pure function increment that takes a number and returns the number incremented by 1 without modifying any external state. Contrast this with a function that increments a global variable. Explain the importance of pure functions and avoiding side effects in functional programming.
+Hint: Ensure increment has no side effects by not relying on or modifying external variables.</t>
+  </si>
+  <si>
+    <t>Map, Filter, and Reduce:
+Given an array of numbers, use the map, filter, and reduce functions to perform the following tasks:
+Double each number.
+Filter out numbers less than 10.
+Calculate the sum of the remaining numbers.
+Hint: Chain the map, filter, and reduce functions to achieve the result.</t>
+  </si>
+  <si>
+    <t>Immutability with Object.freeze:
+Create an object representing a user with properties like name and age. Use Object.freeze to make the object immutable. Attempt to change a property of the object and show that it remains unchanged. Explain why immutability is beneficial in functional programming.
+Hint: Use Object.freeze and try to mutate the object properties.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currying Example:
+Write a function add that can be used to add two numbers, but it should be curried. For example, add(2)(3) should return 5. Demonstrate the usage of this function by creating partially applied versions of the function to add specific numbers.
+Hint: Define a function that returns another function to achieve currying.
+</t>
+  </si>
+  <si>
+    <t>Function Composition:
+Implement two functions, double and square, that take a number and return its double and square, respectively. Create a function compose that takes two functions and returns their composition. Use compose to create a new function that first doubles a number and then squares it. Demonstrate this composed function with an example.
+Hint: The compose function should return a function that applies both functions in sequence.</t>
+  </si>
+  <si>
+    <t>Basic Try-Catch:
+Write a function that attempts to parse a JSON string. Use a try-catch block to handle any errors that occur during parsing. If an error occurs, return a default object with an error message. Demonstrate this function with valid and invalid JSON strings.
+Hint: Use JSON.parse inside the try block and return an error message in the catch block.</t>
+  </si>
+  <si>
+    <t>Custom Error Class:
+Create a custom error class ValidationError that extends the built-in Error class. Write a function that validates user input (e.g., an email address) and throws a ValidationError if the input is invalid. Use a try-catch block to handle the error and display an appropriate message to the user.
+Hint: Define a custom error class and use it within a validation function.</t>
+  </si>
+  <si>
+    <t>Asynchronous Error Handling:
+Write a function that makes an asynchronous HTTP GET request using the fetch API. Use try-catch to handle any errors that occur during the request. Ensure the function returns a meaningful error message if the request fails. Demonstrate this with a valid and an invalid URL.
+Hint: Use async/await with try-catch for asynchronous error handling.</t>
+  </si>
+  <si>
+    <t>Error Middleware in Express.js:
+Create a simple Express.js application with a few routes. Implement error-handling middleware to catch any errors that occur in the route handlers. Ensure the middleware sends a JSON response with the error message and status code. Demonstrate this by creating a route that intentionally throws an error.
+Hint: Define error-handling middleware using app.use((err, req, res, next) =&gt; { ... }).</t>
+  </si>
+  <si>
+    <t>Graceful Error Handling:
+Write a function that reads a file asynchronously using the fs.promises.readFile method. Use a try-catch block to handle any errors that occur during file reading. If an error occurs (e.g., file not found), log the error and return a default value. Demonstrate this function with an existing and a non-existing file.
+Hint: Use fs.promises.readFile inside an async function with try-catch for error handling.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2433,6 +2635,11 @@
       <color rgb="FF0D0D0D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2564,7 +2771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2657,167 +2864,17 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="38">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2933,6 +2990,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2978,7 +3038,136 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3218,30 +3407,6 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3315,6 +3480,54 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3620,8 +3833,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D108" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:D108"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D107" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:D107"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Challenge Number" dataDxfId="29"/>
     <tableColumn id="2" name="Category" dataDxfId="28"/>
@@ -3633,60 +3846,60 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C21" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C21" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:C21"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Challenge Number" dataDxfId="25"/>
-    <tableColumn id="2" name="Category" dataDxfId="24"/>
-    <tableColumn id="3" name="Description" dataDxfId="23"/>
+    <tableColumn id="1" name="Challenge Number" dataDxfId="23"/>
+    <tableColumn id="2" name="Category" dataDxfId="22"/>
+    <tableColumn id="3" name="Description" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:C21" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:C21" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:C21"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Challenge Number" dataDxfId="20"/>
-    <tableColumn id="2" name="Category" dataDxfId="19"/>
-    <tableColumn id="3" name="Description" dataDxfId="18"/>
+    <tableColumn id="1" name="Challenge Number" dataDxfId="18"/>
+    <tableColumn id="2" name="Category" dataDxfId="17"/>
+    <tableColumn id="3" name="Description" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:C21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:C21" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:C21"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Challenge Number" dataDxfId="15"/>
-    <tableColumn id="2" name="Category" dataDxfId="14"/>
-    <tableColumn id="3" name="Description" dataDxfId="13"/>
+    <tableColumn id="1" name="Challenge Number" dataDxfId="13"/>
+    <tableColumn id="2" name="Category" dataDxfId="12"/>
+    <tableColumn id="3" name="Description" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A2:C12" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A2:C12" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A2:C12"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Question Number" dataDxfId="3"/>
-    <tableColumn id="2" name="Category" dataDxfId="2"/>
-    <tableColumn id="3" name="Description" dataDxfId="1"/>
+    <tableColumn id="1" name="Question Number" dataDxfId="7"/>
+    <tableColumn id="2" name="Category" dataDxfId="6"/>
+    <tableColumn id="3" name="Description" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A2:C12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A2:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A2:C12"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Question Number" dataDxfId="9"/>
-    <tableColumn id="2" name="Category" dataDxfId="8"/>
-    <tableColumn id="3" name="Description" dataDxfId="7"/>
+    <tableColumn id="1" name="Question Number" dataDxfId="2"/>
+    <tableColumn id="2" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3957,7 +4170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -5051,10 +5264,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5094,30 +5307,38 @@
       </c>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>502</v>
+      </c>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="17" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="17" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="D6" s="17" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
@@ -5125,7 +5346,7 @@
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>22</v>
       </c>
@@ -5135,31 +5356,41 @@
       <c r="C8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="17" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="234.6" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="17" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="17" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="234.6" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="17" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="17" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
@@ -5167,7 +5398,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
     </row>
-    <row r="14" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>23</v>
       </c>
@@ -5177,31 +5408,41 @@
       <c r="C14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="17" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="17" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="207" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="17" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="207" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="207" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
@@ -5209,7 +5450,7 @@
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
     </row>
-    <row r="20" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>24</v>
       </c>
@@ -5219,31 +5460,41 @@
       <c r="C20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="17" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="17" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="17" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="17" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
@@ -5251,7 +5502,7 @@
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
     </row>
-    <row r="26" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -5261,33 +5512,49 @@
       <c r="C26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="17" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="17" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="D28" s="17" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-    </row>
-    <row r="32" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>26</v>
       </c>
@@ -5297,73 +5564,93 @@
       <c r="C32" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="17"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="17" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="17" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="17" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
+      <c r="D36" s="17" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="17"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+    <row r="38" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
         <v>27</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="17" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="138" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="17" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="17"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="17" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
-      <c r="D42" s="17"/>
+      <c r="D42" s="17" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
@@ -5371,22 +5658,22 @@
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+    <row r="44" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>28</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
-        <v>28</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>55</v>
-      </c>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="17"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -5413,22 +5700,22 @@
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
+    <row r="50" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>29</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="69" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
-        <v>29</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>57</v>
-      </c>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -5455,22 +5742,22 @@
       <c r="C55" s="16"/>
       <c r="D55" s="17"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
+    <row r="56" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>30</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="D56" s="17"/>
     </row>
-    <row r="57" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
-        <v>30</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>58</v>
-      </c>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="17"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -5497,22 +5784,22 @@
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
+    <row r="62" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>31</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
-        <v>31</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>60</v>
-      </c>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -5539,22 +5826,22 @@
       <c r="C67" s="16"/>
       <c r="D67" s="17"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
+    <row r="68" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>32</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="D68" s="17"/>
     </row>
-    <row r="69" spans="1:4" ht="69" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
-        <v>32</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>61</v>
-      </c>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="17"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -5587,22 +5874,22 @@
       <c r="C74" s="16"/>
       <c r="D74" s="17"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+    <row r="75" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+      <c r="A75" s="7">
+        <v>33</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="D75" s="17"/>
     </row>
-    <row r="76" spans="1:4" ht="69" x14ac:dyDescent="0.3">
-      <c r="A76" s="7">
-        <v>33</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>63</v>
-      </c>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="17"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -5635,22 +5922,22 @@
       <c r="C81" s="16"/>
       <c r="D81" s="17"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
+    <row r="82" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+      <c r="A82" s="7">
+        <v>34</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="D82" s="17"/>
     </row>
-    <row r="83" spans="1:4" ht="69" x14ac:dyDescent="0.3">
-      <c r="A83" s="7">
-        <v>34</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>65</v>
-      </c>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
       <c r="D83" s="17"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -5677,22 +5964,22 @@
       <c r="C87" s="16"/>
       <c r="D87" s="17"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
+    <row r="88" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
+        <v>35</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="D88" s="17"/>
     </row>
-    <row r="89" spans="1:4" ht="69" x14ac:dyDescent="0.3">
-      <c r="A89" s="7">
-        <v>35</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>67</v>
-      </c>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
       <c r="D89" s="17"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -5719,22 +6006,22 @@
       <c r="C93" s="16"/>
       <c r="D93" s="17"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
+    <row r="94" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="7">
+        <v>36</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="D94" s="17"/>
     </row>
-    <row r="95" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="7">
-        <v>36</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>69</v>
-      </c>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
       <c r="D95" s="17"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -5767,22 +6054,22 @@
       <c r="C100" s="16"/>
       <c r="D100" s="17"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
+    <row r="101" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="7">
+        <v>37</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="D101" s="17"/>
     </row>
-    <row r="102" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A102" s="7">
-        <v>37</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>71</v>
-      </c>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
       <c r="D102" s="17"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -5797,52 +6084,47 @@
       <c r="C104" s="16"/>
       <c r="D104" s="17"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="16"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
+    <row r="105" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="7">
+        <v>38</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="D105" s="17"/>
     </row>
-    <row r="106" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="69" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D106" s="17"/>
     </row>
-    <row r="107" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D107" s="17"/>
-    </row>
-    <row r="108" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="7">
-        <v>40</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D108" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7555,7 +7837,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="26">
         <v>84</v>
       </c>
@@ -7566,7 +7848,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="26">
         <v>85</v>
       </c>
@@ -7577,7 +7859,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="249" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="26">
         <v>86</v>
       </c>
@@ -7588,7 +7870,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="249" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26">
         <v>87</v>
       </c>
@@ -7599,7 +7881,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26">
         <v>88</v>
       </c>
@@ -7750,7 +8032,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="30">
         <v>98</v>
       </c>
@@ -7761,7 +8043,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <v>99</v>
       </c>
@@ -7772,7 +8054,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <v>100</v>
       </c>

--- a/full-stack-challenge.xlsx
+++ b/full-stack-challenge.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7932" windowHeight="8448" firstSheet="1" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="7932" windowHeight="8448" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Foundations of JavaScript" sheetId="1" r:id="rId1"/>
@@ -2861,14 +2861,14 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5266,7 +5266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="B44" sqref="B44:C75"/>
     </sheetView>
   </sheetViews>
@@ -5533,26 +5533,26 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
@@ -6641,7 +6641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
@@ -7938,11 +7938,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/full-stack-challenge.xlsx
+++ b/full-stack-challenge.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="7932" windowHeight="8448" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7932" windowHeight="8448" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Foundations of JavaScript" sheetId="1" r:id="rId1"/>
@@ -2385,14 +2385,6 @@
 Test the higher-order function by passing different callback functions to perform various arithmetic operations.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Event Listener Higher-Order Function
-Question: Implement a higher-order function in Kotlin that allows for easy handling of button click events across multiple views. The function should accept a lambda expression that defines what happens when a button is clicked. Demonstrate how this higher-order function simplifies adding click listeners to buttons in an Android application.</t>
-  </si>
-  <si>
-    <t>Set Operations with Higher-Order Functions
-Question: Define higher-order functions in Scheme that operate on sets represented as lists. Implement takewhile and dropwhile functions that manipulate lists based on a predicate. Provide examples demonstrating how these functions can be used to filter elements from a list according to a condition.</t>
-  </si>
-  <si>
     <t>Ordered Lists and Comparison
 Question: Develop a higher-order function in Scheme called ordered-by, which takes a comparison function as input and returns a predicate function. This predicate checks whether a given list is totally ordered according to the comparison function. Include examples showing how ordered-by can be used with different comparison functions to validate the ordering of lists.</t>
   </si>
@@ -2585,6 +2577,27 @@
     <t>Graceful Error Handling:
 Write a function that reads a file asynchronously using the fs.promises.readFile method. Use a try-catch block to handle any errors that occur during file reading. If an error occurs (e.g., file not found), log the error and return a default value. Demonstrate this function with an existing and a non-existing file.
 Hint: Use fs.promises.readFile inside an async function with try-catch for error handling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Question: Create a JavaScript function, handleButtonClick, that simplifies adding
+                                    click event listeners to buttons on a webpage. This function should accept two
+                                    parameters: a button element and a callback function. When invoked,
+                                    handleButtonClick should set up an event listener on the provided button element,
+                                    executing the callback function when the button is clicked.
+                                    Provide an example demonstrating how this function can be used to handle click
+                                    events for multiple buttons on a webpage, each triggering a different action. For
+                                    example:
+                                    Clicking "Button 1" should change the background color of the webpage.
+                                    Clicking "Button 2" should display an alert message with a custom text.
+                                    Clicking "Button 3" should toggle the visibility of a specific element on the
+                                    webpage.</t>
+  </si>
+  <si>
+    <t>Define higher-order functions in JavaScript that operate on arrays. Implement takeWhile and dropWhile functions that manipulate arrays based on a predicate. Provide examples demonstrating how these functions can be used to filter elements from an array according to a condition.
+Additionally, perform the following tasks:
+Check if it's raining OR sunny and store the result in a variable isRainingOrSunny.
+Negate the value of isRainingOrSunny and store the result in a variable notRaining.
+Display the values of isRainingOrSunny, notRaining, and isRainingAndSunny.</t>
   </si>
 </sst>
 </file>
@@ -5266,8 +5279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:C75"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5307,21 +5320,21 @@
       </c>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17" t="s">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:6" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="207" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17" t="s">
-        <v>503</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="110.4" x14ac:dyDescent="0.3">
@@ -5329,7 +5342,7 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="110.4" x14ac:dyDescent="0.3">
@@ -5337,7 +5350,7 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5357,7 +5370,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="234.6" x14ac:dyDescent="0.3">
@@ -5365,7 +5378,7 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="220.8" x14ac:dyDescent="0.3">
@@ -5373,7 +5386,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="234.6" x14ac:dyDescent="0.3">
@@ -5381,7 +5394,7 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="248.4" x14ac:dyDescent="0.3">
@@ -5389,7 +5402,7 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5409,7 +5422,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="220.8" x14ac:dyDescent="0.3">
@@ -5417,7 +5430,7 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="207" x14ac:dyDescent="0.3">
@@ -5425,7 +5438,7 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="207" x14ac:dyDescent="0.3">
@@ -5433,7 +5446,7 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="207" x14ac:dyDescent="0.3">
@@ -5441,7 +5454,7 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -5461,7 +5474,7 @@
         <v>49</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
@@ -5469,7 +5482,7 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="179.4" x14ac:dyDescent="0.3">
@@ -5477,7 +5490,7 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="179.4" x14ac:dyDescent="0.3">
@@ -5485,7 +5498,7 @@
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="193.2" x14ac:dyDescent="0.3">
@@ -5493,7 +5506,7 @@
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -5513,7 +5526,7 @@
         <v>51</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="138" x14ac:dyDescent="0.3">
@@ -5521,7 +5534,7 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
@@ -5529,7 +5542,7 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -5537,7 +5550,7 @@
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="34" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -5545,7 +5558,7 @@
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="34" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -5565,7 +5578,7 @@
         <v>53</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -5573,7 +5586,7 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
@@ -5581,7 +5594,7 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
@@ -5589,7 +5602,7 @@
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="138" x14ac:dyDescent="0.3">
@@ -5597,7 +5610,7 @@
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -5617,7 +5630,7 @@
         <v>54</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="138" x14ac:dyDescent="0.3">
@@ -5625,7 +5638,7 @@
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="138" x14ac:dyDescent="0.3">
@@ -5633,7 +5646,7 @@
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="138" x14ac:dyDescent="0.3">
@@ -5641,7 +5654,7 @@
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="138" x14ac:dyDescent="0.3">
@@ -5649,7 +5662,7 @@
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -6641,8 +6654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/full-stack-challenge.xlsx
+++ b/full-stack-challenge.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7932" windowHeight="8448" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7932" windowHeight="8448" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Foundations of JavaScript" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="601">
   <si>
     <t>Challenge Number</t>
   </si>
@@ -2385,14 +2385,6 @@
 Test the higher-order function by passing different callback functions to perform various arithmetic operations.</t>
   </si>
   <si>
-    <t>Ordered Lists and Comparison
-Question: Develop a higher-order function in Scheme called ordered-by, which takes a comparison function as input and returns a predicate function. This predicate checks whether a given list is totally ordered according to the comparison function. Include examples showing how ordered-by can be used with different comparison functions to validate the ordering of lists.</t>
-  </si>
-  <si>
-    <t>Utilizing Classic Higher-Order Functions
-Question: Without using recursion or case analysis in your definitions, create functions in Scheme that utilize map, curry, foldl, and foldr. These functions should operate on non-empty lists to find the maximum, sum, and product of integer elements within the list. Ensure your implementations correctly handle non-empty lists and produce scalar results.</t>
-  </si>
-  <si>
     <t>Transforming Array Elements with .map()
 Objective: Understand and implement the .map() method to transform each element in an array.
 Details:
@@ -2598,6 +2590,340 @@
 Check if it's raining OR sunny and store the result in a variable isRainingOrSunny.
 Negate the value of isRainingOrSunny and store the result in a variable notRaining.
 Display the values of isRainingOrSunny, notRaining, and isRainingAndSunny.</t>
+  </si>
+  <si>
+    <t>Clipboard API:
+Implement a feature that allows users to copy text to the clipboard with a button click. Use the Clipboard API to write text to the clipboard and provide feedback to the user when the text has been successfully copied.
+Hint: Use navigator.clipboard.writeText to copy text to the clipboard.</t>
+  </si>
+  <si>
+    <t>Battery Status API:
+Write a function that uses the Battery Status API to display the current battery level and charging status of the user's device. Update the displayed information in real-time as the battery status changes.
+Hint: Use navigator.getBattery().then(battery =&gt; { ... }) to access battery information.</t>
+  </si>
+  <si>
+    <t>Web Notifications API:
+Implement a function that requests permission to show notifications. If granted, display a notification with a custom message. Handle the case where the user denies the notification permission.
+Hint: Use Notification.requestPermission and new Notification.</t>
+  </si>
+  <si>
+    <t>Device Orientation API:
+Create a webpage that listens for device orientation events and displays the alpha, beta, and gamma values. Handle changes in device orientation and update the displayed values in real-time.
+Hint: Use window.addEventListener('deviceorientation', callback) to get orientation data.</t>
+  </si>
+  <si>
+    <t>Geolocation API:
+Write a function that uses the Geolocation API to get the user's current location. Display the latitude and longitude on the webpage. Handle errors such as the user denying permission or the location being unavailable.
+Hint: Use navigator.geolocation.getCurrentPosition to get the location.</t>
+  </si>
+  <si>
+    <t>Graceful Degradation:
+Implement a function that attempts to fetch data from an API. If the request fails, return a cached version of the data stored in local storage. Log whether the data was fetched from the API or the cache.
+Hint: Use a try-catch block and check local storage in the catch block.</t>
+  </si>
+  <si>
+    <t>Error Logging Service:
+Create a function that catches errors from multiple AJAX requests and logs them to an external error logging service. Use a try-catch block to capture the errors and send the error details to the logging service.
+Hint: Use fetch to send error details to an external endpoint.</t>
+  </si>
+  <si>
+    <t>Retry Mechanism with Delays:
+Write a function that makes an AJAX request with a retry mechanism. If the request fails, retry after a delay, up to a specified number of times. Log the result or an error message after the retries.
+Hint: Use a loop or recursion with setTimeout for retry delays.</t>
+  </si>
+  <si>
+    <t>Timeout Handling:
+Implement a function that fetches data from an API with a timeout mechanism. If the request takes longer than a specified time, abort the request and log a timeout error. Use the AbortController to handle the timeout.
+Hint: Use AbortController and setTimeout to implement the timeout.</t>
+  </si>
+  <si>
+    <t>Handling Network Errors:
+Write a function that makes an AJAX request using the fetch API. Use a try-catch block to handle network errors and log an appropriate message to the console. Demonstrate this with a valid and an invalid URL.
+Hint: Use async/await with try-catch for error handling.</t>
+  </si>
+  <si>
+    <t>Persisting Form Data:
+Create a form with multiple input fields. Use local storage to save the form data whenever the user types in the fields. On page load, populate the form with the saved data if it exists.
+Hint: Use localStorage.setItem and localStorage.getItem to handle the form data.</t>
+  </si>
+  <si>
+    <t>User Authentication with Cookies:
+Implement a simple user login form. Upon successful login, set a cookie with the user's authentication token. Create a function to read the cookie and display a welcome message if the user is authenticated.
+Hint: Use document.cookie to set and read cookies.</t>
+  </si>
+  <si>
+    <t>Dark Mode Toggle:
+Create a toggle button for dark mode on a webpage. Use local storage to remember the user's preference and apply the correct theme on page load.
+Hint: Use localStorage.setItem and localStorage.getItem to save and retrieve the theme preference.</t>
+  </si>
+  <si>
+    <t>Expiration-Based Data Storage:
+Write a function that sets a cookie with an expiration date. Create another function to check if the cookie is still valid based on the expiration date and return the corresponding value or null if expired.
+Hint: Use the expires attribute when setting cookies.</t>
+  </si>
+  <si>
+    <t>Shopping Cart Persistence:
+Implement a simple shopping cart where items can be added or removed. Use local storage to persist the cart items between sessions. Ensure the cart is restored with the correct items when the page is reloaded.
+Hint: Use localStorage to save and retrieve cart items.</t>
+  </si>
+  <si>
+    <t>Email Validation:
+Write a regular expression to validate email addresses. The regex should ensure that the email contains a user name, an '@' symbol, a domain name, and a top-level domain (e.g., .com, .net). Use lookahead and lookbehind assertions to ensure the presence of specific parts of the email format.
+Hint: Use positive lookaheads to validate the structure of the email.</t>
+  </si>
+  <si>
+    <t>Password Strength Check:
+Create a regular expression to validate password strength. The password should contain at least one uppercase letter, one lowercase letter, one digit, one special character, and be at least 8 characters long. Use lookahead assertions to enforce these rules.
+Hint: Use multiple positive lookaheads for each requirement.</t>
+  </si>
+  <si>
+    <t>Extracting Data from Text:
+Write a regular expression to extract all dates in the format YYYY-MM-DD from a given text. Use lookbehind assertions to ensure the dates are not preceded by certain characters (e.g., a letter). Test your regex on a sample text.
+Hint: Use negative lookbehind to ensure the dates are correctly isolated.</t>
+  </si>
+  <si>
+    <t>URL Parsing:
+Develop a regular expression to parse URLs and extract components such as protocol, domain, path, and query parameters. Ensure the regex handles both http and https protocols. Use named capture groups to make the extraction easier.
+Hint: Use named capturing groups like (?&lt;groupName&gt;...).</t>
+  </si>
+  <si>
+    <t>Phone Number Validation:
+Create a regular expression to validate phone numbers in various formats (e.g., (123) 456-7890, 123-456-7890, 123.456.7890). Ensure the regex can handle optional country codes and uses lookahead assertions to check the correct format.
+Hint: Use optional groups and lookaheads for format validation.</t>
+  </si>
+  <si>
+    <t>Callback Function for Data Processing:
+Write a function that reads a file asynchronously using Node.js fs.readFile and processes its content with a callback function. The callback should split the content by lines and print each line to the console. Handle any errors during the file read operation.
+Hint: Use fs.readFile('path/to/file', 'utf8', callback) from the fs module.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promise-based Data Fetching:
+Implement a function that fetches data from a public API using the fetch API and returns a promise. The function should resolve with the data if the request is successful and reject with an error message if the request fails.
+Hint: Use fetch(url).then(response =&gt; response.json()).catch(error =&gt; ...).
+</t>
+  </si>
+  <si>
+    <t>Async/Await for Sequential Operations:
+Write an async function that fetches user data and their posts from an API sequentially using async/await. First, fetch the user data, then use the user ID to fetch their posts. Log the results to the console.
+Hint: Use await fetch(...) within an async function.</t>
+  </si>
+  <si>
+    <t>Event Emitter for Custom Events:
+Create a custom event emitter class in JavaScript. Implement methods to add listeners, emit events, and remove listeners. Demonstrate its usage by emitting a custom event and handling it with registered callbacks.
+Hint: Use an object to store events and their corresponding listeners.</t>
+  </si>
+  <si>
+    <t>Chaining Promises:
+Write a function that fetches a list of users, then fetches additional details for each user using their IDs. Chain promises to handle these operations and log the final results. Ensure to handle any errors that occur in the chain.
+Hint: Use .then chaining for sequential promise handling.</t>
+  </si>
+  <si>
+    <t>Sequential Data Fetching:
+Write a function that fetches user data from one endpoint and then uses the user ID to fetch the user's posts from another endpoint. Ensure the second fetch only occurs after the first has completed successfully. Log both sets of data to the console.
+Hint: Use fetch and chain the second request in the .then of the first.</t>
+  </si>
+  <si>
+    <t>Concurrent Data Fetching:
+Implement a function that fetches data from multiple endpoints concurrently (e.g., users and posts) and logs both sets of data once all requests are completed. Use Promise.all to handle concurrent fetches.
+Hint: Use Promise.all([fetch(url1), fetch(url2)]).</t>
+  </si>
+  <si>
+    <t>Handling JSON Responses:
+Write a function that makes an AJAX request to fetch JSON data. Parse the JSON response and handle any errors that may occur during the fetch or parsing process. Log the parsed data to the console.
+Hint: Use fetch and response.json() with error handling.</t>
+  </si>
+  <si>
+    <t>Progressive Data Fetching:
+Create a function that fetches data in a paginated manner from an API. Fetch the first page of data and, if more data is available, fetch subsequent pages until all data is retrieved. Combine and log the complete data set.
+Hint: Use a loop or recursion to handle paginated fetching.</t>
+  </si>
+  <si>
+    <t>Retry Mechanism:
+Implement a function that fetches data from an API with a retry mechanism. If the request fails, retry up to a specified number of times before giving up. Log the result or an error message after the retries.
+Hint: Use a loop or recursion to implement the retry logic.</t>
+  </si>
+  <si>
+    <t>Basic WebSocket Server:
+Create a simple WebSocket server using Node.js and the ws library. Implement a client that connects to this server, sends a message, and logs any messages received from the server. Demonstrate the client and server communication by exchanging a few messages.
+Hint: Use ws for WebSocket communication and ws.Server for the server implementation.</t>
+  </si>
+  <si>
+    <t>Chat Application:
+Build a basic chat application using WebSockets. The server should broadcast messages to all connected clients. Implement a client that allows users to enter a username and send messages to the chat. Display incoming messages from other users in real-time.
+Hint: Maintain a list of connected clients on the server and use ws.send to broadcast messages.</t>
+  </si>
+  <si>
+    <t>WebSocket Authentication:
+Enhance the chat application to include simple authentication. Require clients to send a token when connecting to the WebSocket server. Validate the token on the server before allowing the client to send or receive messages. Demonstrate this with a simple token validation.
+Hint: Use query parameters or WebSocket subprotocols to send the token during the connection handshake.</t>
+  </si>
+  <si>
+    <t>Real-time Notifications:
+Implement a WebSocket server that sends real-time notifications to connected clients whenever a specific event occurs (e.g., a new user signs up). Create a client that listens for these notifications and displays them to the user.
+Hint: Emit events from the server based on certain conditions and listen for these events on the client.</t>
+  </si>
+  <si>
+    <t>WebSocket Error Handling:
+Add error handling to your WebSocket server and client. Handle scenarios such as connection loss, server unavailability, and message parsing errors. Ensure the client attempts to reconnect if the connection is lost.
+Hint: Use ws.on('error', callback) and ws.on('close', callback) for error and close events.</t>
+  </si>
+  <si>
+    <t>JWT Authentication:
+Implement JWT-based authentication in a Node.js application. Create routes for user registration and login that issue a JWT upon successful authentication. Protect a test route to ensure only authenticated users can access it by validating the JWT.
+Hint: Use jsonwebtoken library to sign and verify JWTs.</t>
+  </si>
+  <si>
+    <t>OAuth2 Integration:
+Implement OAuth2 login with a third-party provider (e.g., Google). Create routes to handle the OAuth2 flow, including redirecting to the provider, handling the callback, and exchanging the authorization code for an access token. Use the access token to fetch user information from the provider.
+Hint: Use the passport library with passport-google-oauth20 strategy.</t>
+  </si>
+  <si>
+    <t>Role-Based Authorization:
+Extend the JWT authentication example to include role-based authorization. Assign roles (e.g., user, admin) to users and protect routes based on user roles. Ensure only users with the required role can access certain routes.
+Hint: Add roles to the JWT payload and create middleware to check for roles.</t>
+  </si>
+  <si>
+    <t>Session Management:
+Implement session-based authentication using cookies and Express sessions. Create routes for user login and logout, and protect a test route to ensure only authenticated users can access it. Store session data on the server using a session store.
+Hint: Use express-session and a session store like connect-redis.</t>
+  </si>
+  <si>
+    <t>Refresh Tokens:
+Implement refresh tokens in a JWT-based authentication system. Issue a refresh token alongside the access token and store it securely. Create routes to handle token refreshing, allowing users to obtain a new access token using the refresh token when the original access token expires.
+Hint: Store refresh tokens securely (e.g., in an HTTP-only cookie) and create a route to issue new access tokens.</t>
+  </si>
+  <si>
+    <t>React SPA:
+Build a simple single-page application (SPA) using React. Implement navigation between different views (e.g., Home, About, Contact) using React Router. Ensure each view is rendered without a full page reload.
+Hint: Use create-react-app to scaffold the project and react-router-dom for routing.</t>
+  </si>
+  <si>
+    <t>Vue.js SPA:
+Create a basic SPA using Vue.js. Implement multiple views (e.g., Dashboard, Profile, Settings) and navigate between them using Vue Router. Ensure the application is structured with components for each view.
+Hint: Use Vue CLI to create the project and vue-router for navigation.</t>
+  </si>
+  <si>
+    <t>Angular SPA:
+Develop a simple SPA using Angular. Implement different views (e.g., Products, Cart, Checkout) and navigate between them using Angular Router. Ensure each view is a separate component and uses Angular's templating system.
+Hint: Use Angular CLI to generate the project and configure routes using @angular/router.</t>
+  </si>
+  <si>
+    <t>Form Handling in React:
+Create a React SPA that includes a form for user input (e.g., a contact form). Handle form submission and display the submitted data on a new view. Implement client-side validation for the form fields.
+Hint: Use React state to manage form data and react-hook-form for form handling.</t>
+  </si>
+  <si>
+    <t>Data Fetching in Vue.js:
+Build a Vue.js SPA that fetches data from a public API (e.g., GitHub API) and displays it in a list view. Implement a search functionality to filter the displayed data based on user input.
+Hint: Use axios for data fetching and Vue's reactive properties to manage state.</t>
+  </si>
+  <si>
+    <t>Redux in React:
+Implement state management in a React application using Redux. Create a simple counter application where the state is managed using Redux actions and reducers. Implement actions to increment and decrement the counter.
+Hint: Use redux and react-redux libraries to set up the store, actions, and reducers.</t>
+  </si>
+  <si>
+    <t>Vuex in Vue.js:
+Build a Vue.js application with state management using Vuex. Create a shopping cart where the cart state is managed by Vuex. Implement actions to add and remove items from the cart and display the current cart contents.
+Hint: Use vuex to create the store and manage cart state.</t>
+  </si>
+  <si>
+    <t>Redux Middleware:
+Enhance the Redux counter application to include logging middleware that logs every action and the resulting state to the console. Implement a custom middleware to achieve this.
+Hint: Use redux-thunk for asynchronous actions and custom middleware for logging.</t>
+  </si>
+  <si>
+    <t>State Persistence:
+Implement state persistence in a Vue.js application using Vuex. Ensure that the state (e.g., user preferences) is saved to local storage and restored when the application is reloaded.
+Hint: Use Vuex plugins to handle state persistence with local storage.</t>
+  </si>
+  <si>
+    <t>Global State in React with Context API:
+Manage global state in a React application using the Context API. Create a theme switcher application where the theme (light or dark) is stored in the global state and can be toggled from any component.
+Hint: Use React.createContext and useContext to manage global state.</t>
+  </si>
+  <si>
+    <t>React Router Navigation:
+Create a React application with client-side routing using React Router. Implement multiple views (e.g., Home, About, Contact) and navigate between them using Link components. Ensure deep linking works by handling browser history.
+Hint: Use react-router-dom to set up routes and Link for navigation.</t>
+  </si>
+  <si>
+    <t>Nested Routes in Vue Router:
+Build a Vue.js application with nested routes using Vue Router. Create parent and child views (e.g., a parent Product view with nested Product Details and Reviews views). Navigate between nested routes.
+Hint: Use vue-router to define and navigate nested routes.</t>
+  </si>
+  <si>
+    <t>Dynamic Routing in Angular:
+Develop an Angular application with dynamic routes using Angular Router. Implement a blog where individual posts are loaded based on the route (e.g., /post/:id). Fetch and display post data based on the dynamic route parameter.
+Hint: Use @angular/router to define dynamic routes and ActivatedRoute to access route parameters.</t>
+  </si>
+  <si>
+    <t>Protected Routes in React:
+Create a React application with protected routes using React Router. Implement a login mechanism and protect certain routes so they are only accessible to authenticated users. Redirect unauthenticated users to the login page.
+Hint: Use React state to manage authentication and Route component to handle protected routes.</t>
+  </si>
+  <si>
+    <t>Route Guards in Vue.js:
+Implement route guards in a Vue.js application using Vue Router. Create a simple admin dashboard that requires authentication to access. Use route guards to check authentication status before allowing access to protected routes.
+Hint: Use beforeEnter guards in vue-router to protect routes.</t>
+  </si>
+  <si>
+    <t>Fetching Data in React:
+Create a React application that fetches data from a third-party API (e.g., OpenWeatherMap) and displays it. Implement error handling and loading states to provide feedback to the user.
+Hint: Use useEffect to fetch data and manage state for loading and error handling.</t>
+  </si>
+  <si>
+    <t>API Integration in Vue.js:
+Build a Vue.js application that integrates with a public API (e.g., News API). Fetch and display a list of articles, and implement a search feature to filter articles based on user input.
+Hint: Use axios for API requests and Vue's reactive properties to manage state.</t>
+  </si>
+  <si>
+    <t>Handling Authentication:
+Implement API integration in a React application that requires authentication. Fetch data from an authenticated API endpoint using a token obtained during login. Display the data only if the user is authenticated.
+Hint: Use fetch or axios to include the token in the request headers.</t>
+  </si>
+  <si>
+    <t>Error Handling:
+Enhance the Vue.js application to handle API errors gracefully. Display user-friendly error messages and retry options if the API request fails. Handle different types of errors (e.g., network errors, API errors).
+Hint: Use try-catch blocks and manage error state to display messages.</t>
+  </si>
+  <si>
+    <t>Paginated Data Fetching:
+Create a React application that fetches and displays paginated data from an API (e.g., GitHub issues). Implement navigation controls to allow users to fetch and view different pages of data.
+Hint: Manage current page state and include pagination parameters in the API request.</t>
+  </si>
+  <si>
+    <t>Unit Testing with Jest:
+Write unit tests for a simple JavaScript function (e.g., a calculator) using Jest. Test various scenarios and edge cases to ensure the function behaves as expected.
+Hint: Use jest to create test cases and assertions.</t>
+  </si>
+  <si>
+    <t>Component Testing in React:
+Write unit tests for a React component using Jest and React Testing Library. Test the component's rendering, user interactions, and state changes. Ensure the component behaves correctly when props or state change.
+Hint: Use @testing-library/react to render components and simulate user interactions.</t>
+  </si>
+  <si>
+    <t>Vue Component Testing:
+Write unit tests for a Vue.js component using Vue Test Utils and Jest. Test the component's rendering, methods, and computed properties. Ensure the component updates correctly based on user input and prop changes.
+Hint: Use @vue/test-utils to mount components and simulate user interactions.</t>
+  </si>
+  <si>
+    <t>Testing Asynchronous Code:
+Write unit tests for an asynchronous function (e.g., a function that fetches data from an API) using Jest. Mock the API requests to test how the function handles different responses and errors.
+Hint: Use jest.mock to mock API requests and async/await to handle asynchronous code.</t>
+  </si>
+  <si>
+    <t>End-to-End Testing:
+Implement end-to-end tests for a web application using a testing framework like Cypress. Write tests to simulate user flows (e.g., login, navigation, form submission) and verify that the application behaves as expected.
+Hint: Use cypress to write and run end-to-end tests.</t>
+  </si>
+  <si>
+    <t>Ordered Lists and Comparison
+Question: Develop a higher-order function in JavaScript called orderedBy, which takes a comparison function as input and returns a predicate function. This predicate should check whether a given array is totally ordered according to the comparison function. Include examples showing how orderedBy can be used with different comparison functions to validate the ordering of arrays.</t>
+  </si>
+  <si>
+    <t>Utilizing Classic Higher-Order Functions
+Question: Without using recursion or case analysis in your definitions, create functions in JavaScript that utilize map, curry, reduce (equivalent to foldl), and reduceRight (equivalent to foldr). These functions should operate on non-empty arrays to find the maximum, sum, and product of integer elements within the array. Ensure your implementations correctly handle non-empty arrays and produce scalar results.</t>
   </si>
 </sst>
 </file>
@@ -2784,7 +3110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2883,6 +3209,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3833,8 +4162,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D123" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="A1:D123"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D122" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="A1:D122"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Challenge Number" dataDxfId="35"/>
     <tableColumn id="2" name="Category" dataDxfId="34"/>
@@ -3846,8 +4175,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D107" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:D107"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D120" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:D120"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Challenge Number" dataDxfId="29"/>
     <tableColumn id="2" name="Category" dataDxfId="28"/>
@@ -4181,10 +4510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="B29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4404,38 +4733,40 @@
         <v>416</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="69" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+      <c r="D24" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="11" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
         <v>5</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="D26" s="13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
@@ -4443,51 +4774,51 @@
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="13" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
         <v>6</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="D32" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -4495,7 +4826,7 @@
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -4503,59 +4834,59 @@
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="69" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="13" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="13" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-    </row>
-    <row r="39" spans="1:4" ht="69" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
         <v>7</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B38" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="D38" s="13" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="13" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -4563,35 +4894,35 @@
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
-      <c r="D43" s="13" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-    </row>
-    <row r="45" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
         <v>8</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B44" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="D44" s="13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -4599,51 +4930,51 @@
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-    </row>
-    <row r="51" spans="1:4" ht="69" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
         <v>9</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>20</v>
       </c>
+      <c r="D50" s="13" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
@@ -4651,7 +4982,7 @@
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
@@ -4659,43 +4990,43 @@
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="69" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
-      <c r="D55" s="13" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+      <c r="A56" s="11">
+        <v>10</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="69" x14ac:dyDescent="0.3">
-      <c r="A57" s="11">
-        <v>10</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -4703,7 +5034,7 @@
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -4711,7 +5042,7 @@
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -4719,7 +5050,7 @@
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="69" x14ac:dyDescent="0.3">
@@ -4727,43 +5058,43 @@
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
-      <c r="D62" s="13" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-    </row>
-    <row r="64" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="11">
+      <c r="D62" s="13"/>
+    </row>
+    <row r="63" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="11">
         <v>11</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B63" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="D63" s="13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="13" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -4771,51 +5102,51 @@
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
-      <c r="D69" s="13" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-    </row>
-    <row r="71" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="11">
+      <c r="D69" s="13"/>
+    </row>
+    <row r="70" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="11">
         <v>12</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B70" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="D70" s="13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
       <c r="D71" s="13" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -4823,67 +5154,67 @@
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="138" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
-      <c r="D75" s="13" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-    </row>
-    <row r="77" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="11">
+      <c r="D75" s="13"/>
+    </row>
+    <row r="76" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="11">
         <v>13</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B76" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="D76" s="13" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
       <c r="D77" s="13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -4891,87 +5222,87 @@
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
-      <c r="D81" s="13" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-    </row>
-    <row r="83" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="11">
+      <c r="D81" s="13"/>
+    </row>
+    <row r="82" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="11">
         <v>14</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B82" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>30</v>
       </c>
+      <c r="D82" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
       <c r="D83" s="13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
-      <c r="D87" s="13" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-    </row>
-    <row r="89" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="11">
+      <c r="D87" s="13"/>
+    </row>
+    <row r="88" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="11">
         <v>15</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B88" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>31</v>
       </c>
+      <c r="D88" s="13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
       <c r="D89" s="13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -4979,7 +5310,7 @@
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -4987,59 +5318,59 @@
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
-      <c r="D93" s="13" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-    </row>
-    <row r="95" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="11">
+      <c r="D93" s="13"/>
+    </row>
+    <row r="94" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="11">
         <v>16</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B94" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C94" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="D94" s="13" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
       <c r="D95" s="13" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
@@ -5047,51 +5378,51 @@
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
-      <c r="D99" s="13" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
+      <c r="D99" s="13"/>
+    </row>
+    <row r="100" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="11">
+        <v>17</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="101" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="11">
-        <v>17</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
       <c r="D101" s="13" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
@@ -5099,170 +5430,162 @@
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
-      <c r="D105" s="13" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="13"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-    </row>
-    <row r="107" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A107" s="11">
+      <c r="D105" s="13"/>
+    </row>
+    <row r="106" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A106" s="11">
         <v>18</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B106" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C106" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="D106" s="13" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
       <c r="D107" s="13" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
-      <c r="D111" s="13" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
+      <c r="D111" s="13"/>
+    </row>
+    <row r="112" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="11">
+        <v>19</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="113" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="11">
-        <v>19</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
       <c r="D113" s="13" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
-      <c r="D117" s="13" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="13"/>
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-    </row>
-    <row r="119" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="11">
+      <c r="D117" s="13"/>
+    </row>
+    <row r="118" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="11">
         <v>20</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B118" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C118" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="D118" s="13" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A119" s="13"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
       <c r="D119" s="13" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A120" s="13"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="138" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A123" s="13"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13" t="s">
         <v>499</v>
       </c>
     </row>
@@ -5277,10 +5600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5325,7 +5648,7 @@
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F3" s="19"/>
     </row>
@@ -5334,7 +5657,7 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="110.4" x14ac:dyDescent="0.3">
@@ -5342,15 +5665,15 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="110.4" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17" t="s">
-        <v>503</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5363,14 +5686,14 @@
       <c r="A8" s="7">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="234.6" x14ac:dyDescent="0.3">
@@ -5378,7 +5701,7 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="220.8" x14ac:dyDescent="0.3">
@@ -5386,7 +5709,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="234.6" x14ac:dyDescent="0.3">
@@ -5394,7 +5717,7 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="248.4" x14ac:dyDescent="0.3">
@@ -5402,7 +5725,7 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5422,7 +5745,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="220.8" x14ac:dyDescent="0.3">
@@ -5430,7 +5753,7 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="207" x14ac:dyDescent="0.3">
@@ -5438,7 +5761,7 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="207" x14ac:dyDescent="0.3">
@@ -5446,7 +5769,7 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="207" x14ac:dyDescent="0.3">
@@ -5454,7 +5777,7 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -5474,7 +5797,7 @@
         <v>49</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
@@ -5482,7 +5805,7 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="179.4" x14ac:dyDescent="0.3">
@@ -5490,7 +5813,7 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="179.4" x14ac:dyDescent="0.3">
@@ -5498,7 +5821,7 @@
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="193.2" x14ac:dyDescent="0.3">
@@ -5506,7 +5829,7 @@
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -5526,7 +5849,7 @@
         <v>51</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="138" x14ac:dyDescent="0.3">
@@ -5534,7 +5857,7 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
@@ -5542,7 +5865,7 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
@@ -5550,7 +5873,7 @@
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="34" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -5558,7 +5881,7 @@
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="34" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -5578,7 +5901,7 @@
         <v>53</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -5586,7 +5909,7 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
@@ -5594,7 +5917,7 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
@@ -5602,7 +5925,7 @@
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="138" x14ac:dyDescent="0.3">
@@ -5610,7 +5933,7 @@
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -5630,7 +5953,7 @@
         <v>54</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="138" x14ac:dyDescent="0.3">
@@ -5638,7 +5961,7 @@
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="138" x14ac:dyDescent="0.3">
@@ -5646,7 +5969,7 @@
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="138" x14ac:dyDescent="0.3">
@@ -5654,7 +5977,7 @@
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="138" x14ac:dyDescent="0.3">
@@ -5662,7 +5985,7 @@
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -5671,7 +5994,7 @@
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>28</v>
       </c>
@@ -5681,31 +6004,41 @@
       <c r="C44" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="17"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="17" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="17" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="17" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="17"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="17" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
+      <c r="D48" s="17" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="16"/>
@@ -5713,7 +6046,7 @@
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>29</v>
       </c>
@@ -5723,31 +6056,41 @@
       <c r="C50" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="17" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
-      <c r="D51" s="17"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="17" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
-      <c r="D52" s="17"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="17" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
-      <c r="D53" s="17"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="17" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
-      <c r="D54" s="17"/>
+      <c r="D54" s="17" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="16"/>
@@ -5755,7 +6098,7 @@
       <c r="C55" s="16"/>
       <c r="D55" s="17"/>
     </row>
-    <row r="56" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>30</v>
       </c>
@@ -5765,31 +6108,41 @@
       <c r="C56" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="17"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
-      <c r="D57" s="17"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="17" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
-      <c r="D58" s="17"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="17" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
-      <c r="D59" s="17"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="17" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
-      <c r="D60" s="17"/>
+      <c r="D60" s="17" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="16"/>
@@ -5797,7 +6150,7 @@
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>31</v>
       </c>
@@ -5807,31 +6160,41 @@
       <c r="C62" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="17"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="17" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
-      <c r="D63" s="17"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="17" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
-      <c r="D64" s="17"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="17" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
-      <c r="D65" s="17"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="17" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
-      <c r="D66" s="17"/>
+      <c r="D66" s="17" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="16"/>
@@ -5839,7 +6202,7 @@
       <c r="C67" s="16"/>
       <c r="D67" s="17"/>
     </row>
-    <row r="68" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>32</v>
       </c>
@@ -5849,31 +6212,41 @@
       <c r="C68" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D68" s="17"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="17" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
-      <c r="D69" s="17"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="17" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
-      <c r="D70" s="17"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="17" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
-      <c r="D71" s="17"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="17" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
-      <c r="D72" s="17"/>
+      <c r="D72" s="17" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="16"/>
@@ -5881,41 +6254,51 @@
       <c r="C73" s="16"/>
       <c r="D73" s="17"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="17"/>
-    </row>
-    <row r="75" spans="1:4" ht="69" x14ac:dyDescent="0.3">
-      <c r="A75" s="7">
+    <row r="74" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
         <v>33</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B74" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D75" s="17"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="36" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="17" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
-      <c r="D76" s="17"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D76" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
-      <c r="D77" s="17"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D77" s="17" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
-      <c r="D78" s="17"/>
+      <c r="D78" s="17" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="16"/>
@@ -5923,41 +6306,51 @@
       <c r="C79" s="16"/>
       <c r="D79" s="17"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="17"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="7">
+        <v>34</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
-      <c r="D81" s="17"/>
-    </row>
-    <row r="82" spans="1:4" ht="69" x14ac:dyDescent="0.3">
-      <c r="A82" s="7">
-        <v>34</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D82" s="17"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="17" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="138" x14ac:dyDescent="0.3">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="17" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
-      <c r="D83" s="17"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D83" s="17" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
-      <c r="D84" s="17"/>
+      <c r="D84" s="17" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="16"/>
@@ -5965,41 +6358,51 @@
       <c r="C85" s="16"/>
       <c r="D85" s="17"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="17"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="7">
+        <v>35</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
-      <c r="D87" s="17"/>
-    </row>
-    <row r="88" spans="1:4" ht="69" x14ac:dyDescent="0.3">
-      <c r="A88" s="7">
-        <v>35</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D88" s="17"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="17" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="17" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
-      <c r="D89" s="17"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D89" s="17" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
-      <c r="D90" s="17"/>
+      <c r="D90" s="17" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="16"/>
@@ -6007,41 +6410,51 @@
       <c r="C91" s="16"/>
       <c r="D91" s="17"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="17"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
+        <v>36</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
-      <c r="D93" s="17"/>
-    </row>
-    <row r="94" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A94" s="7">
-        <v>36</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D94" s="17"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D93" s="17" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="17" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
-      <c r="D95" s="17"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D95" s="17" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
-      <c r="D96" s="17"/>
+      <c r="D96" s="17" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="16"/>
@@ -6049,41 +6462,51 @@
       <c r="C97" s="16"/>
       <c r="D97" s="17"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="17"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="7">
+        <v>37</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
-      <c r="D99" s="17"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D99" s="17" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
-      <c r="D100" s="17"/>
-    </row>
-    <row r="101" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A101" s="7">
-        <v>37</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D101" s="17"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="16"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="17"/>
+      <c r="D100" s="17" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A101" s="33"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="34" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A102" s="33"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="34" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="16"/>
@@ -6091,47 +6514,155 @@
       <c r="C103" s="16"/>
       <c r="D103" s="17"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="17"/>
-    </row>
-    <row r="105" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="7">
+    <row r="104" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A104" s="7">
         <v>38</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B104" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C104" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D105" s="17"/>
-    </row>
-    <row r="106" spans="1:4" ht="69" x14ac:dyDescent="0.3">
-      <c r="A106" s="7">
+      <c r="D104" s="17" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="17" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="17" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="17" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="17" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="17"/>
+    </row>
+    <row r="110" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A110" s="7">
         <v>39</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B110" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C110" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D106" s="17"/>
-    </row>
-    <row r="107" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="7">
+      <c r="D110" s="17" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="17" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="17" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="17" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="17" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="17"/>
+    </row>
+    <row r="116" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="7">
         <v>40</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B116" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C116" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D107" s="17"/>
+      <c r="D116" s="17" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A118" s="17"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="17"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17" t="s">
+        <v>598</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6146,8 +6677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/full-stack-challenge.xlsx
+++ b/full-stack-challenge.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="650">
   <si>
     <t>Challenge Number</t>
   </si>
@@ -2925,12 +2925,234 @@
     <t>Utilizing Classic Higher-Order Functions
 Question: Without using recursion or case analysis in your definitions, create functions in JavaScript that utilize map, curry, reduce (equivalent to foldl), and reduceRight (equivalent to foldr). These functions should operate on non-empty arrays to find the maximum, sum, and product of integer elements within the array. Ensure your implementations correctly handle non-empty arrays and produce scalar results.</t>
   </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>Simple Component Creation:
+Create a functional React component that displays a "Hello, World!" message. Convert this component into a class component and render both components in the main App component.
+Hint: Use function HelloWorld() { ... } for the functional component and class HelloWorld extends React.Component { ... } for the class component.</t>
+  </si>
+  <si>
+    <t>State Management in a Component:
+Build a simple counter application using React. Create a component that displays a counter value and two buttons to increment and decrement the counter. Use the useState hook to manage the counter state.
+Hint: Use const [count, setCount] = useState(0); to manage state in a functional component.</t>
+  </si>
+  <si>
+    <t>Event Handling:
+Create a React component with an input field and a button. Implement an event handler that updates the component's state with the current value of the input field when the button is clicked. Display the updated value below the input field.
+Hint: Use onChange event for the input field and onClick event for the button.</t>
+  </si>
+  <si>
+    <t>Lifecycle Methods:
+Implement a class component that uses lifecycle methods to log messages to the console when the component mounts and unmounts. Display a button to toggle the visibility of this component to trigger mounting and unmounting.
+Hint: Use componentDidMount and componentWillUnmount lifecycle methods in the class component.</t>
+  </si>
+  <si>
+    <t>Component Communication (Props):
+Create a parent component that passes data to a child component via props. The child component should display the data received from the parent. Implement a button in the parent component that changes the data being passed to the child component.
+Hint: Use props to pass data: &lt;ChildComponent data={this.state.data} /&gt; and access it in the child component with props.data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. State Management: Create components that read and update state from the Vuex store. Use mapState and mapMutations helpers to access state and commit mutations. Use computed properties for state and methods for mutations. &lt;br&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Actions and Getters: Implement actions and getters in Vuex. Create asynchronous actions to fetch data from an API and getters to compute derived state. Use mapActions and mapGetters helpers in components. &lt;br&gt; </t>
+  </si>
+  <si>
+    <t>4. Modules: Organize Vuex store into modules. Split store into separate modules for better structure and maintenance. Register modules in the main store configuration. Use namespaced option in modules. &lt;br&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Store Configuration:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Set up a Vuex store in a Vue application. Define state, mutations, actions, and getters for a simple counter. Connect the store to the Vue application. Use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Vue.use(Vuex)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>new Vuex.Store()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. Plugin Integration: Integrate Vuex with plugins. Use Vuex plugins for additional functionality like persisting state to local storage. Create a simple plugin to log every mutation. Use store.subscribe within a plugin function.</t>
+  </si>
+  <si>
+    <t>1. Basic Routing: Set up basic routing in a Vue application. Create multiple components and configure routes to navigate between them using Vue Router. Use vue-router library and define routes in router.js. &lt;br&gt; 2. Dynamic Routing: Implement dynamic routing with parameters. Create a route that accepts an ID parameter and display corresponding details in a component. Use this.$route.params to access route parameters. &lt;br&gt; 3. Navigation Guards: Implement navigation guards. Create a guard that checks user authentication before allowing access to a route. Use beforeEnter in route configuration or global guards. &lt;br&gt; 4. Lazy Loading Routes: Implement lazy loading for routes. Configure routes to load components asynchronously to improve performance. Use () =&gt; import('path/to/component') in route definition. &lt;br&gt; 5. Nested Routes: Implement nested routes. Create a main route with nested routes for sub-components. Define nested routes within the children array in route configuration. Use router-view for nested route rendering.</t>
+  </si>
+  <si>
+    <t>1. Component Creation: Create a simple Vue component. Implement a HelloWorld component that displays a message and use it in the main App component. Use Vue.component or the component option in a Vue instance. &lt;br&gt; 2. Data Binding: Implement two-way data binding. Create a form with input fields bound to component data. Update the data as the user types. Use v-model directive for two-way binding. &lt;br&gt; 3. Event Handling: Handle user events in a Vue component. Create a button that, when clicked, updates a message displayed in the component. Use v-on directive or @click shorthand. &lt;br&gt; 4. Computed Properties: Create a computed property. Implement a computed property that returns the reversed version of a string input by the user. Use computed option in the Vue instance. &lt;br&gt; 5. Conditional Rendering: Implement conditional rendering in a Vue component. Create a component that displays different messages based on a boolean data property. Use v-if and v-else directives.</t>
+  </si>
+  <si>
+    <t>1. Creating and Providing Context: Set up a context for user authentication. Create a UserContext and a provider component that supplies user data to the application. Use React.createContext and Context.Provider. &lt;br&gt; 2. Consuming Context: Consume context data in a component. Create a component that uses the useContext hook to consume user data from UserContext. Use const user = useContext(UserContext);. &lt;br&gt; 3. Updating Context: Implement a function to update context data. Create a function within the context provider to update the user data and provide this function to consumers. Use state within the context provider and pass the state updater function. &lt;br&gt; 4. Context with Multiple Providers: Use multiple contexts in an application. Create two contexts (e.g., ThemeContext and LanguageContext) and provide them to the application. Consume both contexts in a component. Nest Context.Provider components. &lt;br&gt; 5. Context and Performance: Optimize context usage to prevent unnecessary re-renders. Memoize context values and use the useMemo hook to improve performance. Use React.memo and useMemo to optimize context updates.</t>
+  </si>
+  <si>
+    <t>1. Store Configuration: Set up a Redux store for a counter application. Create actions and reducers for incrementing and decrementing the counter. Connect the store to the React application. Use createStore and Provider from react-redux. &lt;br&gt; 2. Connecting Components: Connect a React component to the Redux store. Use useSelector to read the counter value and useDispatch to dispatch increment and decrement actions. Use const count = useSelector(state =&gt; state.count);. &lt;br&gt; 3. Async Actions with Thunk: Fetch data from an API using Redux Thunk. Create an async action to fetch data and store it in the Redux store. Display the data in a component. Use redux-thunk middleware and dispatch async actions. &lt;br&gt; 4. Redux Middleware: Create a custom middleware for logging actions. Implement a middleware that logs every action dispatched to the console. Use applyMiddleware from redux. &lt;br&gt; 5. Redux DevTools: Enable Redux DevTools in the application. Configure the Redux store to use Redux DevTools for better state management debugging. Use window.__REDUX_DEVTOOLS_EXTENSION__ in createStore.</t>
+  </si>
+  <si>
+    <t>1. Basic Routing: Implement basic routing in a React application with React Router. Create three components (Home, About, Contact) and set up routes for these components. Use BrowserRouter, Route, and Link from react-router-dom. &lt;br&gt; 2. Nested Routing: Implement nested routing in a React application. Create a component with nested routes and render different sub-components based on the URL. Use Route and useRouteMatch for nested routes. &lt;br&gt; 3. Programmatic Navigation: Implement navigation through code. Create a button that navigates to a different route when clicked using useHistory hook. Use const history = useHistory(); history.push('/route');. &lt;br&gt; 4. Route Guards: Implement a private route component. Create a private route component that redirects unauthenticated users to the login page. Use Redirect and conditional rendering in the Route component. &lt;br&gt; 5. URL Parameters: Implement a route that accepts URL parameters. Create a component that displays user details based on the user ID passed in the URL. Use useParams hook to access URL parameters.</t>
+  </si>
+  <si>
+    <t>1. State Management with useState: Create a simple todo application using the useState hook. Implement a form to add new todo items and display them in a list. Allow users to mark items as completed. Use const [todos, setTodos] = useState([]);. &lt;br&gt; 2. Side Effects with useEffect: Fetch data from an API when the component mounts using the useEffect hook. Display the fetched data in a list. Show a loading message while data is being fetched. Use useEffect(() =&gt; { fetch('url').then(...); }, []);. &lt;br&gt; 3. Context Management with useContext: Create a theme switcher using the useContext hook. Implement a context for theme management and a component to toggle between light and dark themes. Use const ThemeContext = React.createContext();. &lt;br&gt; 4. Complex State with useReducer: Implement a counter using the useReducer hook. Create a reducer function to handle increment and decrement actions and use useReducer to manage the counter state. Use const [state, dispatch] = useReducer(reducer, initialState);. &lt;br&gt; 5. Custom Hooks: Create a custom hook for form input handling. Implement a custom hook useForm that manages form state and handles input changes. Use this hook in a form component. Use function useForm(initialValues) { ... }.</t>
+  </si>
+  <si>
+    <t>1. Basic Setup: Create a new Nuxt.js project. Set up the project structure and configure basic settings for SSR. Use npx create-nuxt-app. &lt;br&gt; 2. Pages and Navigation: Create multiple pages and configure routing. Implement navigation between pages using nuxt-link. &lt;br&gt; 3. Data Fetching: Fetch data asynchronously before rendering. Use asyncData method in a page component to fetch data from an API. &lt;br&gt; 4. SEO Optimization: Implement SEO improvements. Use head property to set meta tags and titles for different pages. &lt;br&gt; 5. Deployment: Deploy the Nuxt.js application. Use a platform like Vercel or Netlify for deployment and ensure SSR is properly configured.</t>
+  </si>
+  <si>
+    <t>1. Component Creation: Create a new Angular component. Use Angular CLI to generate components and add them to the application. Use ng generate component. &lt;br&gt; 2. Data Binding: Implement data binding in a component. Use [(ngModel)] for two-way data binding and {{}} for interpolation. &lt;br&gt; 3. Event Handling: Handle user events in Angular components. Use event binding to listen for events like clicks and update component data. Use (click)="method()". &lt;br&gt; 4. Property Binding: Bind properties to component variables. Use [property]="variable" syntax for binding component properties. &lt;br&gt; 5. Component Communication: Implement parent-child communication using Input and Output decorators. Pass data between parent and child components using @Input and @Output.</t>
+  </si>
+  <si>
+    <t>1. Service Creation: Create an Angular service. Use Angular CLI to generate a service and inject it into a component. Use ng generate service. &lt;br&gt; 2. Dependency Injection: Inject the service into multiple components. Use constructor injection to provide the service instance to components. &lt;br&gt; 3. HTTP Requests: Use Angular HttpClient in a service to fetch data from an API. Import HttpClientModule and use HttpClient to make GET and POST requests. &lt;br&gt; 4. Shared Logic: Move shared logic to the service. Refactor business logic from components into a service and use the service methods in components. &lt;br&gt; 5. Observable and RxJS: Implement data sharing using RxJS observables. Use BehaviorSubject to manage and share state across components.</t>
+  </si>
+  <si>
+    <t>1. Router Setup: Set up Angular Router in an application. Import RouterModule and define routes in the AppRoutingModule. &lt;br&gt; 2. Basic Navigation: Create routes for different components. Use routerLink directive for navigation. Use RouterModule.forRoot() to configure routes. &lt;br&gt; 3. Route Parameters: Implement dynamic routing with route parameters. Create a route with parameters and access them in the component using ActivatedRoute. &lt;br&gt; 4. Lazy Loading: Implement lazy loading for modules. Configure the router to load feature modules lazily using loadChildren. &lt;br&gt; 5. Route Guards: Implement route guards for authentication. Create an AuthGuard and protect routes based on user authentication status.</t>
+  </si>
+  <si>
+    <t>1. Template-Driven Forms: Create a template-driven form. Use ngModel for two-way data binding and handle form submission. Use FormsModule for template-driven forms. &lt;br&gt; 2. Reactive Forms: Create a reactive form. Use FormBuilder to create form controls and group them into a form group. Use ReactiveFormsModule for reactive forms. &lt;br&gt; 3. Form Validation: Implement form validation. Add validation rules to form controls and display validation messages in the template. Use Validators class for validation. &lt;br&gt; 4. Custom Validators: Create custom validators. Implement a custom validator function and apply it to form controls. &lt;br&gt; 5. Form Submission: Handle form submission. Write a method to process form data and submit it to a backend service. Use ngSubmit directive for handling form submission.</t>
+  </si>
+  <si>
+    <t>1. Directive Creation: Create a new custom directive. Use Angular CLI to generate a directive and implement basic functionality. Use ng generate directive. &lt;br&gt; 2. Attribute Directive: Implement an attribute directive. Create a directive that changes the background color of an element. Use Renderer2 and ElementRef for DOM manipulation. &lt;br&gt; 3. Structural Directive: Create a structural directive. Implement a directive that conditionally adds or removes an element from the DOM. Use TemplateRef and ViewContainerRef. &lt;br&gt; 4. HostListener and HostBinding: Use HostListener and HostBinding decorators. Handle events and bind properties in a directive. &lt;br&gt; 5. Directive Input: Pass data to directives using @Input. Create a directive that accepts input properties and uses them to modify element behavior.</t>
+  </si>
+  <si>
+    <t>1. Basic Setup: Set up a new Next.js project. Create pages and configure routing using the file-based routing system. Use npx create-next-app. &lt;br&gt; 2. Data Fetching: Implement data fetching methods. Use getServerSideProps and getStaticProps to fetch data at build time or request time. &lt;br&gt; 3. API Routes: Create API routes in Next.js. Implement serverless functions within the api directory to handle backend logic. &lt;br&gt; 4. Dynamic Routes: Implement dynamic routing. Create dynamic pages using file and folder naming conventions with square brackets. &lt;br&gt; 5. Deployment: Deploy the Next.js application. Use Vercel or another platform for deployment and ensure proper SSR setup.</t>
+  </si>
+  <si>
+    <t>1. Basic Setup: Create a new Gatsby.js project. Set up the project structure and install necessary plugins. Use gatsby new. &lt;br&gt; 2. Pages and Navigation: Create pages and configure routing. Use Link from gatsby for navigation and gatsby-node.js for programmatic page creation. &lt;br&gt; 3. Data Sources: Fetch data from various sources using GraphQL. Configure source plugins to fetch data from Markdown files, CMS, or APIs. &lt;br&gt; 4. SEO Optimization: Implement SEO improvements. Use gatsby-plugin-react-helmet to manage meta tags and improve SEO. &lt;br&gt; 5. Deployment: Deploy the Gatsby.js site. Use platforms like Netlify or Vercel for deployment and ensure static site optimization.</t>
+  </si>
+  <si>
+    <t>1. Component Creation: Create a new Svelte component. Implement a HelloWorld component and use it in the main App component. Use svelte for development. &lt;br&gt; 2. Reactive Declarations: Implement reactive declarations. Use $: syntax to create reactive statements that update automatically. &lt;br&gt; 3. Event Handling: Handle events in Svelte components. Create a button that updates a message when clicked. Use on:click directive. &lt;br&gt; 4. Two-Way Binding: Implement two-way data binding. Use bind: directive to bind component data to form inputs. &lt;br&gt; 5. Component Props: Pass data to components using props. Create a parent component that passes data to a child component using export let.</t>
+  </si>
+  <si>
+    <t>1. Writable Store: Create a writable store. Use writable from svelte/store to manage a counter state. Use const count = writable(0);. &lt;br&gt; 2. Readable Store: Implement a readable store. Create a store that provides read-only access to data, such as current time. Use const time = readable(new Date(), set =&gt; { ... });. &lt;br&gt; 3. Custom Store: Create a custom store. Implement a store with custom methods for updating state. Use function createCustomStore() { ... }. &lt;br&gt; 4. Store Subscription: Subscribe to store updates in components. Use $store syntax to auto-subscribe and update component state. &lt;br&gt; 5. Derived Store: Create a derived store. Combine multiple stores into a single derived store that computes derived state. Use derived from svelte/store.</t>
+  </si>
+  <si>
+    <t>1. Router Setup: Set up basic routing in a Svelte application. Use svelte-routing library and configure routes using &lt;Router&gt; and &lt;Route&gt;. &lt;br&gt; 2. Nested Routes: Implement nested routes. Create a parent route with nested child routes and render different components based on the nested route. &lt;br&gt; 3. Route Parameters: Implement dynamic routing with route parameters. Create routes that accept parameters and access them in components using params. &lt;br&gt; 4. Route Guards: Implement navigation guards. Protect routes based on authentication status and redirect unauthenticated users. &lt;br&gt; 5. Lazy Loading: Implement lazy loading for routes. Load components asynchronously to improve performance. Use import function for dynamic imports.</t>
+  </si>
+  <si>
+    <t>1. Scene Setup: Create a basic Three.js scene. Set up a scene, camera, and renderer to display a 3D object. Use THREE.Scene, THREE.PerspectiveCamera, and THREE.WebGLRenderer. &lt;br&gt; 2. Basic Geometry: Add basic geometry to the scene. Create and add shapes like cubes, spheres, and planes. Use THREE.BoxGeometry, THREE.SphereGeometry. &lt;br&gt; 3. Materials and Textures: Apply materials and textures to objects. Use different material types and load textures from images. Use THREE.MeshBasicMaterial, THREE.TextureLoader. &lt;br&gt; 4. Animation Loop: Implement an animation loop. Create a loop to render the scene continuously and update object properties for animation. Use requestAnimationFrame and update within the loop. &lt;br&gt; 5. Lighting: Add lighting to the scene. Implement different light types such as ambient, directional, and point lights. Use THREE.AmbientLight, THREE.DirectionalLight.</t>
+  </si>
+  <si>
+    <t>1. Basic Setup: Create a new web worker. Write a JavaScript file for the worker and instantiate it in the main script using new Worker('worker.js'). &lt;br&gt; 2. Message Passing: Implement communication between the main thread and the web worker. Use postMessage and onmessage to send and receive messages. &lt;br&gt; 3. Data Processing: Offload a computationally intensive task to the web worker. Write logic in the worker script to process data and return results. &lt;br&gt; 4. Error Handling: Implement error handling in the worker. Use onerror to catch errors in the worker and handle them gracefully. &lt;br&gt; 5. Terminating Workers: Terminate the web worker when it's no longer needed. Use worker.terminate() to stop the worker and free up resources.</t>
+  </si>
+  <si>
+    <t>1. Registration: Register a service worker in the main script. Use navigator.serviceWorker.register('/service-worker.js') to register the worker. &lt;br&gt; 2. Caching Strategies: Implement different caching strategies. Use Cache API to cache assets and resources during the install event. &lt;br&gt; 3. Offline Support: Enable offline support. Write logic in the service worker to serve cached content when the network is unavailable. &lt;br&gt; 4. Push Notifications: Implement push notifications. Use Push API to subscribe to push notifications and display them using the Notification API. &lt;br&gt; 5. Update Handling: Handle service worker updates. Implement logic to detect and activate new service worker versions without disrupting the user experience.</t>
+  </si>
+  <si>
+    <t>1. Manifest File: Create a web app manifest file. Define metadata like the app name, icons, and start URL in manifest.json. &lt;br&gt; 2. Service Worker Setup: Register a service worker for offline capabilities. Use the service worker to cache assets and enable offline functionality. &lt;br&gt; 3. Installability: Make the app installable. Ensure the web app meets PWA criteria and is prompted for installation by browsers. &lt;br&gt; 4. Testing: Test PWA features. Use tools like Lighthouse in Chrome DevTools to test and optimize PWA performance. &lt;br&gt; 5. Deployment: Deploy the PWA. Ensure the PWA is served over HTTPS and verify its functionality in different environments.</t>
+  </si>
+  <si>
+    <t>1. WebSocket Setup: Establish a WebSocket connection. Create a WebSocket server and client to exchange messages in real-time. Use new WebSocket('ws://server'). &lt;br&gt; 2. Message Handling: Implement message handling in WebSockets. Write server and client logic to handle incoming and outgoing messages. &lt;br&gt; 3. SSE Setup: Set up Server-Sent Events. Create an SSE endpoint on the server and subscribe to it on the client using EventSource. &lt;br&gt; 4. Real-Time Updates: Implement real-time updates using WebSockets or SSE. Use these technologies to push real-time data updates to clients. &lt;br&gt; 5. Error Handling: Handle errors and reconnections in WebSockets and SSE. Implement logic to detect disconnections and attempt reconnection.</t>
+  </si>
+  <si>
+    <t>1. Basic Setup: Set up a GraphQL server. Use a GraphQL server library like Apollo Server to define schemas and resolvers. &lt;br&gt; 2. Client Integration: Integrate GraphQL on the client side. Use Apollo Client or Relay to fetch data from the GraphQL server. &lt;br&gt; 3. Queries: Write GraphQL queries to fetch data. Define and execute queries to retrieve specific data required by the client. &lt;br&gt; 4. Mutations: Implement GraphQL mutations to modify data. Write mutation resolvers on the server and call them from the client. &lt;br&gt; 5. Subscriptions: Implement real-time updates with GraphQL subscriptions. Set up a subscription server to push real-time data to clients.</t>
+  </si>
+  <si>
+    <t>1. Basic Setup: Establish a WebRTC connection. Use RTCPeerConnection to create a peer-to-peer connection between clients. &lt;br&gt; 2. Media Streams: Capture media streams. Use getUserMedia to access the device's camera and microphone and add the streams to the peer connection. &lt;br&gt; 3. Signaling: Implement a signaling mechanism. Use a signaling server to exchange session descriptions (SDP) and ICE candidates between peers. &lt;br&gt; 4. Data Channels: Create a data channel for file sharing. Use RTCDataChannel to send and receive arbitrary data between peers. &lt;br&gt; 5. Error Handling: Handle errors and disconnections in WebRTC. Implement logic to detect and recover from connection issues and handle media stream errors.</t>
+  </si>
+  <si>
+    <t>1. Compilation: Compile C/C++ code to WebAssembly. Use Emscripten to compile source code into a WebAssembly module (.wasm file). &lt;br&gt; 2. Loading Module: Load and instantiate the WebAssembly module in JavaScript. Use WebAssembly.instantiate to load the .wasm file. &lt;br&gt; 3. Memory Management: Manage memory for WebAssembly. Allocate and deallocate memory for data exchange between JavaScript and WebAssembly. &lt;br&gt; 4. Interfacing: Interface between JavaScript and WebAssembly. Call exported WebAssembly functions from JavaScript and pass arguments. &lt;br&gt; 5. Optimization: Optimize WebAssembly performance. Use compiler optimization flags and techniques to improve the performance of the WebAssembly module.</t>
+  </si>
+  <si>
+    <t>1. Proposal Research: Research and choose an ECMAScript proposal. Select a stage-3 or higher proposal from TC39's process. &lt;br&gt; 2. Polyfill Implementation: Implement a polyfill for the proposal. Write JavaScript code to mimic the behavior of the proposed feature. &lt;br&gt; 3. Testing: Test the new feature. Write unit tests to verify the correctness and compatibility of the polyfill. &lt;br&gt; 4. Integration: Integrate the polyfill into a project. Use the polyfill in a real-world application to test its practicality and performance. &lt;br&gt; 5. Feedback: Provide feedback to the proposal authors. Share findings and suggestions based on the implementation experience with the TC39 community.</t>
+  </si>
+  <si>
+    <t>1. Garbage Collection: Learn about JavaScript garbage collection. Understand how V8 and other engines manage memory and perform garbage collection. &lt;br&gt; 2. Memory Leaks: Identify common causes of memory leaks. Analyze code patterns that lead to memory leaks, such as circular references and detached DOM nodes. &lt;br&gt; 3. Profiling: Use memory profiling tools. Utilize browser developer tools to profile memory usage and detect leaks in web applications. &lt;br&gt; 4. Optimization Techniques: Implement memory optimization techniques. Apply best practices like object pooling, efficient data structures, and lazy loading. &lt;br&gt; 5. Performance Monitoring: Monitor and analyze memory performance. Set up monitoring tools to track memory usage and optimize based on real-time data.</t>
+  </si>
+  <si>
+    <t>1. Factory Pattern: Implement the Factory pattern. Create a factory function that returns different types of objects based on input parameters. &lt;br&gt; 2. Observer Pattern: Implement the Observer pattern. Create a subject that maintains a list of observers and notifies them of state changes. &lt;br&gt; 3. Decorator Pattern: Implement the Decorator pattern. Enhance object behavior dynamically by wrapping objects with decorator functions. &lt;br&gt; 4. Proxy Pattern: Implement the Proxy pattern. Use the Proxy object to control access and modifications to another object. &lt;br&gt; 5. Practical Application: Apply design patterns in a project. Integrate these patterns into a real-world application to solve specific design problems.</t>
+  </si>
+  <si>
+    <t>1. Functors: Understand and implement functors. Create a functor class that implements the map method to apply functions to wrapped values. &lt;br&gt; 2. Monads: Learn about monads and implement them. Create a monad class that implements flatMap (or chain) for function composition. &lt;br&gt; 3. Monoids: Implement monoids. Create a monoid class that implements an associative binary operation and an identity element. &lt;br&gt; 4. Higher-Order Functions: Use higher-order functions. Write functions that take other functions as arguments or return them. &lt;br&gt; 5. Real-World Usage: Apply functional programming in real-world scenarios. Refactor existing codebases to use functional patterns for improved maintainability.</t>
+  </si>
+  <si>
+    <t>1. Concurrency Models: Understand JavaScript's concurrency model. Learn about the event loop, call stack, and task queue. &lt;br&gt; 2. Web Workers: Use web workers for parallelism. Offload tasks to web workers to run them in parallel with the main thread. &lt;br&gt; 3. Async/Await: Implement asynchronous code using async and await. Write non-blocking code that handles asynchronous operations seamlessly. &lt;br&gt; 4. Promises: Use Promises for concurrency. Chain and handle multiple asynchronous operations with Promises. &lt;br&gt; 5. Parallel Processing: Explore parallel processing libraries. Use libraries like parallel.js to execute tasks in parallel across multiple threads.</t>
+  </si>
+  <si>
+    <t>1. Service Decomposition: Decompose a monolithic application into microservices. Identify and separate functionalities into independent services. &lt;br&gt; 2. Communication: Implement communication between microservices. Use HTTP, gRPC, or message queues for inter-service communication. &lt;br&gt; 3. API Gateway: Set up an API Gateway. Use an API Gateway to manage and route requests to the appropriate microservices. &lt;br&gt; 4. Service Discovery: Implement service discovery. Use tools like Consul or Eureka for dynamic discovery and registration of services. &lt;br&gt; 5. Deployment: Deploy microservices. Use containerization tools like Docker and orchestration platforms like Kubernetes for scalable deployment.</t>
+  </si>
+  <si>
+    <t>1. Architecture Design: Design the architecture of a distributed system. Understand and plan for horizontal scaling, data partitioning, and redundancy. &lt;br&gt; 2. Distributed Databases: Implement distributed databases. Use databases like Cassandra, MongoDB, or DynamoDB for data distribution and replication. &lt;br&gt; 3. Consistency Models: Understand consistency models. Learn about eventual consistency, strong consistency, and CAP theorem. &lt;br&gt; 4. Fault Tolerance: Implement fault tolerance mechanisms. Use techniques like replication, sharding, and consensus algorithms (e.g., Raft, Paxos). &lt;br&gt; 5. Monitoring: Set up monitoring and logging. Use tools like Prometheus, Grafana, and ELK stack for monitoring and analyzing system performance.</t>
+  </si>
+  <si>
+    <t>1. Observable Creation: Create observables. Use RxJS to create observables that emit data over time. &lt;br&gt; 2. Operators: Use RxJS operators. Apply operators like map, filter, merge, and switchMap to transform and combine observables. &lt;br&gt; 3. Subscription: Implement subscription logic. Subscribe to observables to react to emitted data and handle it in the application. &lt;br&gt; 4. Error Handling: Handle errors in observables. Use RxJS error handling operators like catchError and retry to manage errors in data streams. &lt;br&gt; 5. Real-World Application: Integrate RxJS into a real-world application. Use reactive programming to manage complex asynchronous data flows.</t>
+  </si>
+  <si>
+    <t>1. Blockchain Basics: Understand blockchain technology. Learn about the fundamental concepts of blockchain, including blocks, transactions, and consensus. &lt;br&gt; 2. Ethereum Integration: Integrate Ethereum blockchain. Use Ethereum.js to interact with Ethereum blockchain, deploy smart contracts, and manage transactions. &lt;br&gt; 3. Smart Contracts: Write and deploy smart contracts. Use Solidity to write smart contracts and deploy them on the Ethereum network. &lt;br&gt; 4. DApp Development: Develop decentralized applications (DApps). Build a frontend interface that interacts with smart contracts and blockchain data. &lt;br&gt; 5. Security: Implement security best practices. Ensure the security of blockchain transactions and smart contracts by following best practices and auditing code.</t>
+  </si>
+  <si>
+    <t>1. TensorFlow.js Setup: Set up TensorFlow.js. Install and configure TensorFlow.js for running machine learning models in the browser. &lt;br&gt; 2. Model Training: Train machine learning models. Use TensorFlow.js to define, train, and evaluate models for tasks like classification and regression. &lt;br&gt; 3. Pre-trained Models: Use pre-trained models. Load and use pre-trained models from TensorFlow Hub for common tasks like image recognition and text analysis. &lt;br&gt; 4. Inference: Perform inference with models. Use trained models to make predictions on new data in real-time. &lt;br&gt; 5. Integration: Integrate AI into web applications. Build interactive web apps that utilize machine learning models for intelligent features.</t>
+  </si>
+  <si>
+    <t>1. Quantum Basics: Learn the basics of quantum computing. Understand qubits, superposition, entanglement, and quantum gates. &lt;br&gt; 2. Quantum Libraries: Explore JavaScript libraries for quantum computing, such as Quantum JavaScript (jsqubits). Understand how to simulate basic quantum circuits. &lt;br&gt; 3. Quantum Circuits: Create quantum circuits. Use JavaScript libraries to define quantum circuits and run them on quantum simulators or real quantum hardware. &lt;br&gt; 4. Algorithms: Implement quantum algorithms. Write and test quantum algorithms like Grover's search and Shor's factoring. &lt;br&gt; 5. Applications: Explore quantum applications. Research and develop potential applications of quantum computing in areas like cryptography and optimization.</t>
+  </si>
+  <si>
+    <t>1. AR Setup: Set up AR.js for augmented reality development. Configure the environment and include necessary scripts for AR functionality. &lt;br&gt; 2. Marker-Based AR: Implement marker-based AR. Use AR.js to detect and track markers, and overlay 3D content on them. &lt;br&gt; 3. Markerless AR: Explore markerless AR. Implement AR experiences that do not rely on physical markers, using device sensors and computer vision. &lt;br&gt; 4. 3D Content: Create and display 3D content in AR. Use 3D models and animations to enhance the AR experience. &lt;br&gt; 5. User Interaction: Implement user interaction in AR. Enable interactions like tapping, dragging, and resizing AR objects using JavaScript event listeners.</t>
+  </si>
+  <si>
+    <t>1. VR Setup: Set up A-Frame for VR development. Include A-Frame library and create a basic VR scene with essential components. &lt;br&gt; 2. Scene Creation: Create complex VR scenes. Use A-Frame primitives and custom components to build immersive VR environments. &lt;br&gt; 3. Interactions: Implement user interactions in VR. Use controllers and event listeners to enable user interaction with VR elements. &lt;br&gt; 4. Animations: Add animations to VR objects. Use A-Frame's animation components to create dynamic and engaging VR experiences. &lt;br&gt; 5. Performance Optimization: Optimize VR performance. Ensure smooth rendering and performance by optimizing assets and using efficient coding practices.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2979,6 +3201,24 @@
       <sz val="9.6"/>
       <color rgb="FF0D0D0D"/>
       <name val="Segoe UI"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3110,7 +3350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3206,17 +3446,226 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3869,126 +4318,6 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4162,86 +4491,88 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D122" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D122" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:D122"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Challenge Number" dataDxfId="35"/>
-    <tableColumn id="2" name="Category" dataDxfId="34"/>
-    <tableColumn id="3" name="Description" dataDxfId="33"/>
-    <tableColumn id="4" name="Task" dataDxfId="32"/>
+    <tableColumn id="1" name="Challenge Number" dataDxfId="37"/>
+    <tableColumn id="2" name="Category" dataDxfId="36"/>
+    <tableColumn id="3" name="Description" dataDxfId="35"/>
+    <tableColumn id="4" name="Task" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D120" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D120" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:D120"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Challenge Number" dataDxfId="29"/>
-    <tableColumn id="2" name="Category" dataDxfId="28"/>
-    <tableColumn id="3" name="Description" dataDxfId="27"/>
-    <tableColumn id="4" name="Task" dataDxfId="26"/>
+    <tableColumn id="1" name="Challenge Number" dataDxfId="31"/>
+    <tableColumn id="2" name="Category" dataDxfId="30"/>
+    <tableColumn id="3" name="Description" dataDxfId="29"/>
+    <tableColumn id="4" name="Task" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C21" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:C21"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Challenge Number" dataDxfId="23"/>
-    <tableColumn id="2" name="Category" dataDxfId="22"/>
-    <tableColumn id="3" name="Description" dataDxfId="21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D21" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D21"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Challenge Number" dataDxfId="3"/>
+    <tableColumn id="2" name="Category" dataDxfId="2"/>
+    <tableColumn id="3" name="Description" dataDxfId="1"/>
+    <tableColumn id="4" name="Task" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:C21" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:C21"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Challenge Number" dataDxfId="18"/>
-    <tableColumn id="2" name="Category" dataDxfId="17"/>
-    <tableColumn id="3" name="Description" dataDxfId="16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D32" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:D32"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Challenge Number" dataDxfId="25"/>
+    <tableColumn id="2" name="Category" dataDxfId="24"/>
+    <tableColumn id="3" name="Description" dataDxfId="23"/>
+    <tableColumn id="4" name="Challenge" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:C21" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:C21" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:C21"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Challenge Number" dataDxfId="13"/>
-    <tableColumn id="2" name="Category" dataDxfId="12"/>
-    <tableColumn id="3" name="Description" dataDxfId="11"/>
+    <tableColumn id="1" name="Challenge Number" dataDxfId="20"/>
+    <tableColumn id="2" name="Category" dataDxfId="19"/>
+    <tableColumn id="3" name="Description" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A2:C12" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A2:C12" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A2:C12"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Question Number" dataDxfId="7"/>
-    <tableColumn id="2" name="Category" dataDxfId="6"/>
-    <tableColumn id="3" name="Description" dataDxfId="5"/>
+    <tableColumn id="1" name="Question Number" dataDxfId="14"/>
+    <tableColumn id="2" name="Category" dataDxfId="13"/>
+    <tableColumn id="3" name="Description" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A2:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A2:C12" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A2:C12"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Question Number" dataDxfId="2"/>
-    <tableColumn id="2" name="Category" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Question Number" dataDxfId="9"/>
+    <tableColumn id="2" name="Category" dataDxfId="8"/>
+    <tableColumn id="3" name="Description" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4512,7 +4843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView topLeftCell="B29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -5602,7 +5933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -6264,7 +6595,7 @@
       <c r="C74" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D74" s="36" t="s">
+      <c r="D74" s="35" t="s">
         <v>538</v>
       </c>
     </row>
@@ -6675,20 +7006,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="43.21875" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -6698,8 +7030,11 @@
       <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="44" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>41</v>
       </c>
@@ -6709,8 +7044,11 @@
       <c r="C2" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D2" s="42" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>42</v>
       </c>
@@ -6720,8 +7058,11 @@
       <c r="C3" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D3" s="42" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>43</v>
       </c>
@@ -6731,8 +7072,11 @@
       <c r="C4" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D4" s="42" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>44</v>
       </c>
@@ -6742,8 +7086,11 @@
       <c r="C5" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D5" s="42" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>45</v>
       </c>
@@ -6753,8 +7100,11 @@
       <c r="C6" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D6" s="42" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>46</v>
       </c>
@@ -6764,8 +7114,11 @@
       <c r="C7" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D7" s="42" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>47</v>
       </c>
@@ -6775,8 +7128,11 @@
       <c r="C8" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D8" s="42" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>48</v>
       </c>
@@ -6786,8 +7142,11 @@
       <c r="C9" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D9" s="42" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>49</v>
       </c>
@@ -6797,8 +7156,11 @@
       <c r="C10" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D10" s="42" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>50</v>
       </c>
@@ -6808,8 +7170,11 @@
       <c r="C11" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D11" s="42" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>51</v>
       </c>
@@ -6819,8 +7184,11 @@
       <c r="C12" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D12" s="42" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>52</v>
       </c>
@@ -6830,8 +7198,11 @@
       <c r="C13" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D13" s="42" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>53</v>
       </c>
@@ -6841,8 +7212,11 @@
       <c r="C14" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D14" s="42" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>54</v>
       </c>
@@ -6852,8 +7226,11 @@
       <c r="C15" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D15" s="42" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>55</v>
       </c>
@@ -6863,8 +7240,11 @@
       <c r="C16" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D16" s="42" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>56</v>
       </c>
@@ -6874,8 +7254,11 @@
       <c r="C17" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D17" s="42" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>57</v>
       </c>
@@ -6885,8 +7268,11 @@
       <c r="C18" s="7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D18" s="42" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>58</v>
       </c>
@@ -6896,8 +7282,11 @@
       <c r="C19" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D19" s="42" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>59</v>
       </c>
@@ -6907,8 +7296,11 @@
       <c r="C20" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D20" s="42" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>60</v>
       </c>
@@ -6917,6 +7309,9 @@
       </c>
       <c r="C21" s="7" t="s">
         <v>116</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -6929,10 +7324,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C21"/>
+    <sheetView topLeftCell="D11" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6940,9 +7335,10 @@
     <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" customWidth="1"/>
     <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="64.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -6952,8 +7348,11 @@
       <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D1" s="38" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A2" s="25">
         <v>61</v>
       </c>
@@ -6963,220 +7362,365 @@
       <c r="C2" s="25" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
+      <c r="D2" s="39" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+    </row>
+    <row r="8" spans="1:4" ht="234.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
         <v>62</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B8" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C8" s="25" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
+      <c r="D8" s="40" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
         <v>63</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B9" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C9" s="25" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
+      <c r="D9" s="40" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="207" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
         <v>64</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B10" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C10" s="25" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="D10" s="40" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="220.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
         <v>65</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B11" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C11" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
+      <c r="D11" s="40" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
         <v>66</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B12" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C12" s="25" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="D12" s="40" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
         <v>67</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B13" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C13" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
+      <c r="D13" s="40" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
         <v>68</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B14" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C14" s="25" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="D14" s="41" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="40" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="40" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="40" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+    </row>
+    <row r="20" spans="1:4" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="25">
         <v>69</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B20" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C20" s="25" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="D20" s="45" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="25">
         <v>70</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B21" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C21" s="25" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
+      <c r="D21" s="45" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="138.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="25">
         <v>71</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B22" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C22" s="25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+      <c r="D22" s="45" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="138.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="25">
         <v>72</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B23" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C23" s="25" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="D23" s="45" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="25">
         <v>73</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B24" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C24" s="25" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
+      <c r="D24" s="45" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="25">
         <v>74</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B25" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C25" s="25" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
+      <c r="D25" s="45" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="25">
         <v>75</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B26" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C26" s="25" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="D26" s="45" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="25">
         <v>76</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B27" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C27" s="25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
+      <c r="D27" s="45" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="138.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="25">
         <v>77</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B28" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C28" s="25" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+      <c r="D28" s="45" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="138.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="25">
         <v>78</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B29" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C29" s="25" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
+      <c r="D29" s="45" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="138.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="25">
         <v>79</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B30" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C30" s="25" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="25">
+      <c r="D30" s="45" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="25">
         <v>80</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B31" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C31" s="25" t="s">
         <v>156</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="43" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7444,6 +7988,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="19" max="19" width="16.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
@@ -8188,7 +8735,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8482,11 +9029,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/full-stack-challenge.xlsx
+++ b/full-stack-challenge.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7932" windowHeight="8448" firstSheet="1" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="7932" windowHeight="8448" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Foundations of JavaScript" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="654">
   <si>
     <t>Challenge Number</t>
   </si>
@@ -3088,9 +3088,6 @@
     <t>1. Scene Setup: Create a basic Three.js scene. Set up a scene, camera, and renderer to display a 3D object. Use THREE.Scene, THREE.PerspectiveCamera, and THREE.WebGLRenderer. &lt;br&gt; 2. Basic Geometry: Add basic geometry to the scene. Create and add shapes like cubes, spheres, and planes. Use THREE.BoxGeometry, THREE.SphereGeometry. &lt;br&gt; 3. Materials and Textures: Apply materials and textures to objects. Use different material types and load textures from images. Use THREE.MeshBasicMaterial, THREE.TextureLoader. &lt;br&gt; 4. Animation Loop: Implement an animation loop. Create a loop to render the scene continuously and update object properties for animation. Use requestAnimationFrame and update within the loop. &lt;br&gt; 5. Lighting: Add lighting to the scene. Implement different light types such as ambient, directional, and point lights. Use THREE.AmbientLight, THREE.DirectionalLight.</t>
   </si>
   <si>
-    <t>1. Basic Setup: Create a new web worker. Write a JavaScript file for the worker and instantiate it in the main script using new Worker('worker.js'). &lt;br&gt; 2. Message Passing: Implement communication between the main thread and the web worker. Use postMessage and onmessage to send and receive messages. &lt;br&gt; 3. Data Processing: Offload a computationally intensive task to the web worker. Write logic in the worker script to process data and return results. &lt;br&gt; 4. Error Handling: Implement error handling in the worker. Use onerror to catch errors in the worker and handle them gracefully. &lt;br&gt; 5. Terminating Workers: Terminate the web worker when it's no longer needed. Use worker.terminate() to stop the worker and free up resources.</t>
-  </si>
-  <si>
     <t>1. Registration: Register a service worker in the main script. Use navigator.serviceWorker.register('/service-worker.js') to register the worker. &lt;br&gt; 2. Caching Strategies: Implement different caching strategies. Use Cache API to cache assets and resources during the install event. &lt;br&gt; 3. Offline Support: Enable offline support. Write logic in the service worker to serve cached content when the network is unavailable. &lt;br&gt; 4. Push Notifications: Implement push notifications. Use Push API to subscribe to push notifications and display them using the Notification API. &lt;br&gt; 5. Update Handling: Handle service worker updates. Implement logic to detect and activate new service worker versions without disrupting the user experience.</t>
   </si>
   <si>
@@ -3146,13 +3143,28 @@
   </si>
   <si>
     <t>1. VR Setup: Set up A-Frame for VR development. Include A-Frame library and create a basic VR scene with essential components. &lt;br&gt; 2. Scene Creation: Create complex VR scenes. Use A-Frame primitives and custom components to build immersive VR environments. &lt;br&gt; 3. Interactions: Implement user interactions in VR. Use controllers and event listeners to enable user interaction with VR elements. &lt;br&gt; 4. Animations: Add animations to VR objects. Use A-Frame's animation components to create dynamic and engaging VR experiences. &lt;br&gt; 5. Performance Optimization: Optimize VR performance. Ensure smooth rendering and performance by optimizing assets and using efficient coding practices.</t>
+  </si>
+  <si>
+    <t>1. Basic Setup: Create a new web worker. Write a JavaScript file for the worker and instantiate it in the main script using new Worker('worker.js').</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. Message Passing: Implement communication between the main thread and the web worker. Use postMessage and onmessage to send and receive messages.</t>
+  </si>
+  <si>
+    <t>3. Data Processing: Offload a computationally intensive task to the web worker. Write logic in the worker script to process data and return results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. Error Handling: Implement error handling in the worker. Use onerror to catch errors in the worker and handle them gracefully.</t>
+  </si>
+  <si>
+    <t>5. Terminating Workers: Terminate the web worker when it's no longer needed. Use worker.terminate() to stop the worker and free up resources.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3201,12 +3213,6 @@
       <sz val="9.6"/>
       <color rgb="FF0D0D0D"/>
       <name val="Segoe UI"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3350,7 +3356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3449,9 +3455,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3479,193 +3482,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.6"/>
-        <color rgb="FF0D0D0D"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4175,6 +4002,188 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4517,62 +4526,62 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D21" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D26" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:D26"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Challenge Number" dataDxfId="3"/>
-    <tableColumn id="2" name="Category" dataDxfId="2"/>
-    <tableColumn id="3" name="Description" dataDxfId="1"/>
-    <tableColumn id="4" name="Task" dataDxfId="0"/>
+    <tableColumn id="1" name="Challenge Number" dataDxfId="25"/>
+    <tableColumn id="2" name="Category" dataDxfId="24"/>
+    <tableColumn id="3" name="Description" dataDxfId="23"/>
+    <tableColumn id="4" name="Task" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D32" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D32" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:D32"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Challenge Number" dataDxfId="25"/>
-    <tableColumn id="2" name="Category" dataDxfId="24"/>
-    <tableColumn id="3" name="Description" dataDxfId="23"/>
-    <tableColumn id="4" name="Challenge" dataDxfId="6"/>
+    <tableColumn id="1" name="Challenge Number" dataDxfId="19"/>
+    <tableColumn id="2" name="Category" dataDxfId="18"/>
+    <tableColumn id="3" name="Description" dataDxfId="17"/>
+    <tableColumn id="4" name="Challenge" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:C21" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:C21" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:C21"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Challenge Number" dataDxfId="20"/>
-    <tableColumn id="2" name="Category" dataDxfId="19"/>
-    <tableColumn id="3" name="Description" dataDxfId="18"/>
+    <tableColumn id="1" name="Challenge Number" dataDxfId="13"/>
+    <tableColumn id="2" name="Category" dataDxfId="12"/>
+    <tableColumn id="3" name="Description" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A2:C12" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A2:C12" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A2:C12"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Question Number" dataDxfId="14"/>
-    <tableColumn id="2" name="Category" dataDxfId="13"/>
-    <tableColumn id="3" name="Description" dataDxfId="12"/>
+    <tableColumn id="1" name="Question Number" dataDxfId="7"/>
+    <tableColumn id="2" name="Category" dataDxfId="6"/>
+    <tableColumn id="3" name="Description" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A2:C12" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A2:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A2:C12"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Question Number" dataDxfId="9"/>
-    <tableColumn id="2" name="Category" dataDxfId="8"/>
-    <tableColumn id="3" name="Description" dataDxfId="7"/>
+    <tableColumn id="1" name="Question Number" dataDxfId="2"/>
+    <tableColumn id="2" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7006,10 +7015,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7030,11 +7039,11 @@
       <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>41</v>
       </c>
@@ -7044,280 +7053,319 @@
       <c r="C2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="46" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="46" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="46" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="46" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="46"/>
+    </row>
+    <row r="8" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>42</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="41" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>42</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="42" t="s">
+    <row r="9" spans="1:4" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>43</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="41" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>43</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="42" t="s">
+    <row r="10" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>44</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>44</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="42" t="s">
+    <row r="11" spans="1:4" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>45</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="41" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>45</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="42" t="s">
+    <row r="12" spans="1:4" ht="249" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>46</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>46</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="42" t="s">
+    <row r="13" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>47</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="41" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>47</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="42" t="s">
+    <row r="14" spans="1:4" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>48</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="41" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>48</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="42" t="s">
+    <row r="15" spans="1:4" ht="276.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>49</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="41" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
-        <v>49</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="42" t="s">
+    <row r="16" spans="1:4" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>50</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="41" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
-        <v>50</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="42" t="s">
+    <row r="17" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>51</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="41" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
-        <v>51</v>
-      </c>
-      <c r="B12" s="7" t="s">
+    <row r="18" spans="1:4" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
         <v>52</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="42" t="s">
+      <c r="B18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="41" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
-        <v>52</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="42" t="s">
+    <row r="19" spans="1:4" ht="249" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>53</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="41" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
-        <v>53</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="42" t="s">
+    <row r="20" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>54</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="41" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="42" t="s">
+    <row r="21" spans="1:4" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>55</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="41" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="42" t="s">
+    <row r="22" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>56</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="41" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="42" t="s">
+    <row r="23" spans="1:4" ht="249" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>57</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="41" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="42" t="s">
+    <row r="24" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>58</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="41" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="42" t="s">
+    <row r="25" spans="1:4" ht="249" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>59</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="41" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
-        <v>59</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="42" t="s">
+    <row r="26" spans="1:4" ht="249" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>60</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="41" t="s">
         <v>648</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
-        <v>60</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>649</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7348,7 +7396,7 @@
       <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>601</v>
       </c>
     </row>
@@ -7362,47 +7410,47 @@
       <c r="C2" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" ht="234.6" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
@@ -7414,7 +7462,7 @@
       <c r="C8" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="39" t="s">
         <v>617</v>
       </c>
     </row>
@@ -7428,7 +7476,7 @@
       <c r="C9" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="39" t="s">
         <v>616</v>
       </c>
     </row>
@@ -7442,7 +7490,7 @@
       <c r="C10" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="39" t="s">
         <v>615</v>
       </c>
     </row>
@@ -7456,7 +7504,7 @@
       <c r="C11" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="39" t="s">
         <v>614</v>
       </c>
     </row>
@@ -7470,7 +7518,7 @@
       <c r="C12" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="39" t="s">
         <v>613</v>
       </c>
     </row>
@@ -7484,7 +7532,7 @@
       <c r="C13" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="39" t="s">
         <v>612</v>
       </c>
     </row>
@@ -7498,47 +7546,47 @@
       <c r="C14" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="40" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="40" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="39" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="40" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="39" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="40" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="39" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="25">
@@ -7550,7 +7598,7 @@
       <c r="C20" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="44" t="s">
         <v>618</v>
       </c>
     </row>
@@ -7564,7 +7612,7 @@
       <c r="C21" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="44" t="s">
         <v>619</v>
       </c>
     </row>
@@ -7578,7 +7626,7 @@
       <c r="C22" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="44" t="s">
         <v>620</v>
       </c>
     </row>
@@ -7592,7 +7640,7 @@
       <c r="C23" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="44" t="s">
         <v>621</v>
       </c>
     </row>
@@ -7606,7 +7654,7 @@
       <c r="C24" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="44" t="s">
         <v>622</v>
       </c>
     </row>
@@ -7620,7 +7668,7 @@
       <c r="C25" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="44" t="s">
         <v>623</v>
       </c>
     </row>
@@ -7634,7 +7682,7 @@
       <c r="C26" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="44" t="s">
         <v>624</v>
       </c>
     </row>
@@ -7648,7 +7696,7 @@
       <c r="C27" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="44" t="s">
         <v>625</v>
       </c>
     </row>
@@ -7662,7 +7710,7 @@
       <c r="C28" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="44" t="s">
         <v>626</v>
       </c>
     </row>
@@ -7676,7 +7724,7 @@
       <c r="C29" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="44" t="s">
         <v>627</v>
       </c>
     </row>
@@ -7690,7 +7738,7 @@
       <c r="C30" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="44" t="s">
         <v>628</v>
       </c>
     </row>
@@ -7704,15 +7752,15 @@
       <c r="C31" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="44" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="43" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="42" t="s">
         <v>155</v>
       </c>
     </row>
@@ -9029,11 +9077,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/full-stack-challenge.xlsx
+++ b/full-stack-challenge.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="7932" windowHeight="8448" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7932" windowHeight="8448" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Foundations of JavaScript" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="653">
   <si>
     <t>Challenge Number</t>
   </si>
@@ -3145,19 +3145,21 @@
     <t>1. VR Setup: Set up A-Frame for VR development. Include A-Frame library and create a basic VR scene with essential components. &lt;br&gt; 2. Scene Creation: Create complex VR scenes. Use A-Frame primitives and custom components to build immersive VR environments. &lt;br&gt; 3. Interactions: Implement user interactions in VR. Use controllers and event listeners to enable user interaction with VR elements. &lt;br&gt; 4. Animations: Add animations to VR objects. Use A-Frame's animation components to create dynamic and engaging VR experiences. &lt;br&gt; 5. Performance Optimization: Optimize VR performance. Ensure smooth rendering and performance by optimizing assets and using efficient coding practices.</t>
   </si>
   <si>
-    <t>1. Basic Setup: Create a new web worker. Write a JavaScript file for the worker and instantiate it in the main script using new Worker('worker.js').</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. Message Passing: Implement communication between the main thread and the web worker. Use postMessage and onmessage to send and receive messages.</t>
-  </si>
-  <si>
-    <t>3. Data Processing: Offload a computationally intensive task to the web worker. Write logic in the worker script to process data and return results.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4. Error Handling: Implement error handling in the worker. Use onerror to catch errors in the worker and handle them gracefully.</t>
-  </si>
-  <si>
     <t>5. Terminating Workers: Terminate the web worker when it's no longer needed. Use worker.terminate() to stop the worker and free up resources.</t>
+  </si>
+  <si>
+    <t>1. Basic Setup &amp; Message Passing: Create a new web worker. Write a JavaScript file for the worker and instantiate it in the main script using new Worker('worker.js'). Implement communication between the main thread and the web worker. Use postMessage and onmessage to send and receive messages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Error Handling: Implement error handling in the worker. Use onerror to catch errors in the worker and handle them gracefully.</t>
+  </si>
+  <si>
+    <t>2. Data Processing Task: Entrust the web worker with a demanding computational task as follows:
+1. Data Loading: Load a sample dataset from an Excel file in the main script. The dataset comprises two columns: "quantity" and "price".
+ 2. Data Cleansing (Web Worker): Cleanse the columns by removing duplicates.
+3. Total Revenue Calculation (Web Worker): Determine the total revenue for each entry by multiplying the "quantity" and "price" columns.
+4. Price Statistics Computation (Web Worker): Compute the average, maximum, and minimum values of the "price" column.
+5. Results Transmission: Transmit the meticulously processed dataset, total revenue, and price statistics back to the main thread for further analysis or visualization.</t>
   </si>
 </sst>
 </file>
@@ -3482,11 +3484,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4526,8 +4528,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D26" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:D26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D25" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:D25"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Challenge Number" dataDxfId="25"/>
     <tableColumn id="2" name="Category" dataDxfId="24"/>
@@ -7015,10 +7017,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7043,7 +7045,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>41</v>
       </c>
@@ -7054,22 +7056,22 @@
         <v>79</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="290.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
-      <c r="D3" s="46" t="s">
-        <v>650</v>
+      <c r="D3" s="45" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="45" t="s">
         <v>651</v>
       </c>
     </row>
@@ -7077,287 +7079,279 @@
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
-      <c r="D5" s="46" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="45" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
-      <c r="D6" s="46" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="46"/>
-    </row>
-    <row r="8" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="45"/>
+    </row>
+    <row r="7" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>42</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="249" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="249" thickBot="1" x14ac:dyDescent="0.35">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="276.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="276.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="249" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="249" thickBot="1" x14ac:dyDescent="0.35">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="249" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="249" thickBot="1" x14ac:dyDescent="0.35">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="262.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="249" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="249" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="249" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
-        <v>60</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="41" t="s">
         <v>648</v>
       </c>
     </row>
@@ -9077,11 +9071,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
